--- a/lab7analysis.xlsx
+++ b/lab7analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A79A732-47C8-4B48-8251-BF46B292C9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D691B-5198-8F4A-ADE1-DE39F92760F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{685E1627-B16A-4E45-983F-3B881B2C1CDA}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{16F35811-FF4D-8743-B107-F13C1116F54D}" name="hascycle" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/hascycle.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/hascycle.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -49,7 +49,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{9B7A9BD6-F104-DE46-9EDB-47141E5F297D}" name="isconnected2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/isconnected2.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/isconnected2.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -246,10 +246,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$106</c:f>
+              <c:f>Sheet1!$C$6:$C$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -558,10 +558,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$6:$D$106</c:f>
+              <c:f>Sheet1!$D$6:$D$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -572,241 +572,241 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>4.4000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>42.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>49.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>57.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>63.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>67.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>79.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>81.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>86.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>92.7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>93.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>94.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>97.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>97.9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>99.7</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>99.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>99.8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>99.9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>99.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="51">
-                  <c:v>100</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>100</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>100</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>100</c:v>
+                  <c:v>48.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>100</c:v>
+                  <c:v>53.1</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100</c:v>
+                  <c:v>53.9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100</c:v>
+                  <c:v>57.7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>100</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>100</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>100</c:v>
+                  <c:v>71.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>100</c:v>
+                  <c:v>77.2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>100</c:v>
+                  <c:v>76.8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>100</c:v>
+                  <c:v>79.7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>100</c:v>
+                  <c:v>82.4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100</c:v>
+                  <c:v>84.4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>100</c:v>
+                  <c:v>88.2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>100</c:v>
+                  <c:v>90.6</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>100</c:v>
+                  <c:v>92.6</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100</c:v>
+                  <c:v>92.9</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>100</c:v>
+                  <c:v>95.2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>100</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>100</c:v>
+                  <c:v>98.1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>100</c:v>
+                  <c:v>98.2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>100</c:v>
+                  <c:v>98.9</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>100</c:v>
+                  <c:v>99.4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>100</c:v>
+                  <c:v>99.3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>100</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>100</c:v>
@@ -815,7 +815,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>100</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>100</c:v>
@@ -2954,7 +2954,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>0</c:v>
@@ -2963,13 +2963,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="156">
                   <c:v>0</c:v>
@@ -2981,730 +2981,730 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="161">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="187">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="188">
-                  <c:v>20</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="202">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>20</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="204">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>10</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="209">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="212">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="210">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="213">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="221">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="222">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="232">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="213">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="233">
-                  <c:v>70</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>30</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>60</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>70</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>60</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>40</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>40</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>60</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>30</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>60</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>60</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>40</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>60</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>40</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>70</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>80</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>60</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="251">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="260">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="252">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="261">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="267">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="258">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="260">
+                <c:pt idx="268">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="271">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="261">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>80</c:v>
-                </c:pt>
                 <c:pt idx="272">
-                  <c:v>100</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>80</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>80</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>80</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>80</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>80</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>70</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>70</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>30</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>60</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>70</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>70</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="285">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="315">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="316">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="318">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="287">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="319">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="322">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="290">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="323">
-                  <c:v>100</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>90</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>100</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>80</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>90</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>80</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>90</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>100</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>80</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>100</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>80</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>100</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>100</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>90</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>100</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>100</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>80</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>80</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>90</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>90</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="348">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="392">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="349">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="393">
-                  <c:v>90</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5566,16 +5566,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1AE73-9468-6448-A459-218E3F5A9A0C}">
   <dimension ref="C5:G406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
@@ -5639,7 +5638,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -5653,7 +5652,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -5667,7 +5666,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -5681,7 +5680,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
@@ -5695,7 +5694,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>7</v>
@@ -5709,7 +5708,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>8</v>
@@ -5723,7 +5722,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>12.6</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="1">
         <v>9</v>
@@ -5737,7 +5736,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>10</v>
@@ -5751,7 +5750,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>18.600000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
@@ -5765,7 +5764,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>25.7</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="1">
         <v>12</v>
@@ -5779,7 +5778,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>13</v>
@@ -5793,7 +5792,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>37</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="1">
         <v>14</v>
@@ -5807,7 +5806,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <v>42.7</v>
+        <v>0.8</v>
       </c>
       <c r="F21" s="1">
         <v>15</v>
@@ -5821,7 +5820,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>49.1</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="1">
         <v>16</v>
@@ -5835,7 +5834,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>57.2</v>
+        <v>0.3</v>
       </c>
       <c r="F23" s="1">
         <v>17</v>
@@ -5849,7 +5848,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>63.4</v>
+        <v>1.4</v>
       </c>
       <c r="F24" s="1">
         <v>18</v>
@@ -5863,7 +5862,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>67.099999999999994</v>
+        <v>1.3</v>
       </c>
       <c r="F25" s="1">
         <v>19</v>
@@ -5877,7 +5876,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>72.5</v>
+        <v>0.8</v>
       </c>
       <c r="F26" s="1">
         <v>20</v>
@@ -5891,7 +5890,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>79.3</v>
+        <v>0.9</v>
       </c>
       <c r="F27" s="1">
         <v>21</v>
@@ -5905,7 +5904,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>81.8</v>
+        <v>1.7</v>
       </c>
       <c r="F28" s="1">
         <v>22</v>
@@ -5919,7 +5918,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>86.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F29" s="1">
         <v>23</v>
@@ -5933,7 +5932,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>89</v>
+        <v>3.1</v>
       </c>
       <c r="F30" s="1">
         <v>24</v>
@@ -5947,7 +5946,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>92.7</v>
+        <v>2.6</v>
       </c>
       <c r="F31" s="1">
         <v>25</v>
@@ -5961,7 +5960,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>93.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F32" s="1">
         <v>26</v>
@@ -5975,7 +5974,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>94.9</v>
+        <v>3.3</v>
       </c>
       <c r="F33" s="1">
         <v>27</v>
@@ -5989,7 +5988,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>97</v>
+        <v>3.3</v>
       </c>
       <c r="F34" s="1">
         <v>28</v>
@@ -6003,7 +6002,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>97.8</v>
+        <v>4.5</v>
       </c>
       <c r="F35" s="1">
         <v>29</v>
@@ -6017,7 +6016,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>98</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="1">
         <v>30</v>
@@ -6031,7 +6030,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>97.9</v>
+        <v>4.8</v>
       </c>
       <c r="F37" s="1">
         <v>31</v>
@@ -6045,7 +6044,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>99.7</v>
+        <v>7.5</v>
       </c>
       <c r="F38" s="1">
         <v>32</v>
@@ -6059,7 +6058,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>99.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F39" s="1">
         <v>33</v>
@@ -6073,7 +6072,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>99.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F40" s="1">
         <v>34</v>
@@ -6087,7 +6086,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>99.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F41" s="1">
         <v>35</v>
@@ -6101,7 +6100,7 @@
         <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>100</v>
+        <v>11.1</v>
       </c>
       <c r="F42" s="1">
         <v>36</v>
@@ -6115,7 +6114,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>99.9</v>
+        <v>13.2</v>
       </c>
       <c r="F43" s="1">
         <v>37</v>
@@ -6129,7 +6128,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1">
         <v>38</v>
@@ -6143,7 +6142,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="1">
-        <v>99.9</v>
+        <v>15.2</v>
       </c>
       <c r="F45" s="1">
         <v>39</v>
@@ -6157,7 +6156,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F46" s="1">
         <v>40</v>
@@ -6171,7 +6170,7 @@
         <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>100</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F47" s="1">
         <v>41</v>
@@ -6185,7 +6184,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>100</v>
+        <v>15.8</v>
       </c>
       <c r="F48" s="1">
         <v>42</v>
@@ -6199,7 +6198,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="1">
-        <v>100</v>
+        <v>18.5</v>
       </c>
       <c r="F49" s="1">
         <v>43</v>
@@ -6213,7 +6212,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="1">
-        <v>100</v>
+        <v>22.2</v>
       </c>
       <c r="F50" s="1">
         <v>44</v>
@@ -6227,7 +6226,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="1">
-        <v>100</v>
+        <v>24.1</v>
       </c>
       <c r="F51" s="1">
         <v>45</v>
@@ -6241,7 +6240,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>100</v>
+        <v>27.5</v>
       </c>
       <c r="F52" s="1">
         <v>46</v>
@@ -6255,7 +6254,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="1">
-        <v>100</v>
+        <v>27.4</v>
       </c>
       <c r="F53" s="1">
         <v>47</v>
@@ -6269,7 +6268,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>100</v>
+        <v>31.6</v>
       </c>
       <c r="F54" s="1">
         <v>48</v>
@@ -6283,7 +6282,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="F55" s="1">
         <v>49</v>
@@ -6297,7 +6296,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F56" s="1">
         <v>50</v>
@@ -6311,7 +6310,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>100</v>
+        <v>38.4</v>
       </c>
       <c r="F57" s="1">
         <v>51</v>
@@ -6325,7 +6324,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>100</v>
+        <v>42.1</v>
       </c>
       <c r="F58" s="1">
         <v>52</v>
@@ -6339,7 +6338,7 @@
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>100</v>
+        <v>47.9</v>
       </c>
       <c r="F59" s="1">
         <v>53</v>
@@ -6353,7 +6352,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>100</v>
+        <v>48.8</v>
       </c>
       <c r="F60" s="1">
         <v>54</v>
@@ -6367,7 +6366,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>100</v>
+        <v>53.1</v>
       </c>
       <c r="F61" s="1">
         <v>55</v>
@@ -6381,7 +6380,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>100</v>
+        <v>53.9</v>
       </c>
       <c r="F62" s="1">
         <v>56</v>
@@ -6395,7 +6394,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>100</v>
+        <v>57.7</v>
       </c>
       <c r="F63" s="1">
         <v>57</v>
@@ -6409,7 +6408,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>100</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="F64" s="1">
         <v>58</v>
@@ -6423,7 +6422,7 @@
         <v>59</v>
       </c>
       <c r="D65" s="1">
-        <v>100</v>
+        <v>63.8</v>
       </c>
       <c r="F65" s="1">
         <v>59</v>
@@ -6437,7 +6436,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>100</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="F66" s="1">
         <v>60</v>
@@ -6451,7 +6450,7 @@
         <v>61</v>
       </c>
       <c r="D67" s="1">
-        <v>100</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F67" s="1">
         <v>61</v>
@@ -6465,7 +6464,7 @@
         <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>100</v>
+        <v>77.2</v>
       </c>
       <c r="F68" s="1">
         <v>62</v>
@@ -6479,7 +6478,7 @@
         <v>63</v>
       </c>
       <c r="D69" s="1">
-        <v>100</v>
+        <v>76.8</v>
       </c>
       <c r="F69" s="1">
         <v>63</v>
@@ -6493,7 +6492,7 @@
         <v>64</v>
       </c>
       <c r="D70" s="1">
-        <v>100</v>
+        <v>79.7</v>
       </c>
       <c r="F70" s="1">
         <v>64</v>
@@ -6507,7 +6506,7 @@
         <v>65</v>
       </c>
       <c r="D71" s="1">
-        <v>100</v>
+        <v>82.4</v>
       </c>
       <c r="F71" s="1">
         <v>65</v>
@@ -6521,7 +6520,7 @@
         <v>66</v>
       </c>
       <c r="D72" s="1">
-        <v>100</v>
+        <v>84.4</v>
       </c>
       <c r="F72" s="1">
         <v>66</v>
@@ -6535,7 +6534,7 @@
         <v>67</v>
       </c>
       <c r="D73" s="1">
-        <v>100</v>
+        <v>88.2</v>
       </c>
       <c r="F73" s="1">
         <v>67</v>
@@ -6549,7 +6548,7 @@
         <v>68</v>
       </c>
       <c r="D74" s="1">
-        <v>100</v>
+        <v>90.6</v>
       </c>
       <c r="F74" s="1">
         <v>68</v>
@@ -6563,7 +6562,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="1">
-        <v>100</v>
+        <v>92.6</v>
       </c>
       <c r="F75" s="1">
         <v>69</v>
@@ -6577,7 +6576,7 @@
         <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>100</v>
+        <v>92.9</v>
       </c>
       <c r="F76" s="1">
         <v>70</v>
@@ -6591,7 +6590,7 @@
         <v>71</v>
       </c>
       <c r="D77" s="1">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="F77" s="1">
         <v>71</v>
@@ -6605,7 +6604,7 @@
         <v>72</v>
       </c>
       <c r="D78" s="1">
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="F78" s="1">
         <v>72</v>
@@ -6619,7 +6618,7 @@
         <v>73</v>
       </c>
       <c r="D79" s="1">
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="F79" s="1">
         <v>73</v>
@@ -6633,7 +6632,7 @@
         <v>74</v>
       </c>
       <c r="D80" s="1">
-        <v>100</v>
+        <v>98.1</v>
       </c>
       <c r="F80" s="1">
         <v>74</v>
@@ -6647,7 +6646,7 @@
         <v>75</v>
       </c>
       <c r="D81" s="1">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="F81" s="1">
         <v>75</v>
@@ -6661,7 +6660,7 @@
         <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>100</v>
+        <v>98.9</v>
       </c>
       <c r="F82" s="1">
         <v>76</v>
@@ -6675,7 +6674,7 @@
         <v>77</v>
       </c>
       <c r="D83" s="1">
-        <v>100</v>
+        <v>99.4</v>
       </c>
       <c r="F83" s="1">
         <v>77</v>
@@ -6689,7 +6688,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="1">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="F84" s="1">
         <v>78</v>
@@ -6703,7 +6702,7 @@
         <v>79</v>
       </c>
       <c r="D85" s="1">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F85" s="1">
         <v>79</v>
@@ -6731,7 +6730,7 @@
         <v>81</v>
       </c>
       <c r="D87" s="1">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="F87" s="1">
         <v>81</v>
@@ -6773,7 +6772,7 @@
         <v>84</v>
       </c>
       <c r="D90" s="1">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="F90" s="1">
         <v>84</v>
@@ -7403,7 +7402,7 @@
         <v>150</v>
       </c>
       <c r="G156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.2">
@@ -7427,7 +7426,7 @@
         <v>153</v>
       </c>
       <c r="G159" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="6:7" x14ac:dyDescent="0.2">
@@ -7435,7 +7434,7 @@
         <v>154</v>
       </c>
       <c r="G160" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.2">
@@ -7443,7 +7442,7 @@
         <v>155</v>
       </c>
       <c r="G161" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.2">
@@ -7475,7 +7474,7 @@
         <v>159</v>
       </c>
       <c r="G165" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.2">
@@ -7483,7 +7482,7 @@
         <v>160</v>
       </c>
       <c r="G166" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="6:7" x14ac:dyDescent="0.2">
@@ -7491,7 +7490,7 @@
         <v>161</v>
       </c>
       <c r="G167" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="6:7" x14ac:dyDescent="0.2">
@@ -7499,7 +7498,7 @@
         <v>162</v>
       </c>
       <c r="G168" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.2">
@@ -7507,7 +7506,7 @@
         <v>163</v>
       </c>
       <c r="G169" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="6:7" x14ac:dyDescent="0.2">
@@ -7515,7 +7514,7 @@
         <v>164</v>
       </c>
       <c r="G170" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="6:7" x14ac:dyDescent="0.2">
@@ -7523,7 +7522,7 @@
         <v>165</v>
       </c>
       <c r="G171" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.2">
@@ -7531,7 +7530,7 @@
         <v>166</v>
       </c>
       <c r="G172" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.2">
@@ -7539,7 +7538,7 @@
         <v>167</v>
       </c>
       <c r="G173" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.2">
@@ -7547,7 +7546,7 @@
         <v>168</v>
       </c>
       <c r="G174" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.2">
@@ -7555,7 +7554,7 @@
         <v>169</v>
       </c>
       <c r="G175" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.2">
@@ -7563,7 +7562,7 @@
         <v>170</v>
       </c>
       <c r="G176" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.2">
@@ -7571,7 +7570,7 @@
         <v>171</v>
       </c>
       <c r="G177" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="6:7" x14ac:dyDescent="0.2">
@@ -7579,7 +7578,7 @@
         <v>172</v>
       </c>
       <c r="G178" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="6:7" x14ac:dyDescent="0.2">
@@ -7587,7 +7586,7 @@
         <v>173</v>
       </c>
       <c r="G179" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="6:7" x14ac:dyDescent="0.2">
@@ -7595,7 +7594,7 @@
         <v>174</v>
       </c>
       <c r="G180" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="6:7" x14ac:dyDescent="0.2">
@@ -7603,7 +7602,7 @@
         <v>175</v>
       </c>
       <c r="G181" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="6:7" x14ac:dyDescent="0.2">
@@ -7611,7 +7610,7 @@
         <v>176</v>
       </c>
       <c r="G182" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="6:7" x14ac:dyDescent="0.2">
@@ -7619,7 +7618,7 @@
         <v>177</v>
       </c>
       <c r="G183" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="6:7" x14ac:dyDescent="0.2">
@@ -7627,7 +7626,7 @@
         <v>178</v>
       </c>
       <c r="G184" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="6:7" x14ac:dyDescent="0.2">
@@ -7635,7 +7634,7 @@
         <v>179</v>
       </c>
       <c r="G185" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="6:7" x14ac:dyDescent="0.2">
@@ -7643,7 +7642,7 @@
         <v>180</v>
       </c>
       <c r="G186" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="6:7" x14ac:dyDescent="0.2">
@@ -7651,7 +7650,7 @@
         <v>181</v>
       </c>
       <c r="G187" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="6:7" x14ac:dyDescent="0.2">
@@ -7659,7 +7658,7 @@
         <v>182</v>
       </c>
       <c r="G188" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="6:7" x14ac:dyDescent="0.2">
@@ -7667,7 +7666,7 @@
         <v>183</v>
       </c>
       <c r="G189" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="6:7" x14ac:dyDescent="0.2">
@@ -7675,7 +7674,7 @@
         <v>184</v>
       </c>
       <c r="G190" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="6:7" x14ac:dyDescent="0.2">
@@ -7683,7 +7682,7 @@
         <v>185</v>
       </c>
       <c r="G191" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="6:7" x14ac:dyDescent="0.2">
@@ -7691,7 +7690,7 @@
         <v>186</v>
       </c>
       <c r="G192" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="6:7" x14ac:dyDescent="0.2">
@@ -7699,7 +7698,7 @@
         <v>187</v>
       </c>
       <c r="G193" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="6:7" x14ac:dyDescent="0.2">
@@ -7707,7 +7706,7 @@
         <v>188</v>
       </c>
       <c r="G194" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="6:7" x14ac:dyDescent="0.2">
@@ -7715,7 +7714,7 @@
         <v>189</v>
       </c>
       <c r="G195" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="6:7" x14ac:dyDescent="0.2">
@@ -7723,7 +7722,7 @@
         <v>190</v>
       </c>
       <c r="G196" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="6:7" x14ac:dyDescent="0.2">
@@ -7731,7 +7730,7 @@
         <v>191</v>
       </c>
       <c r="G197" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="6:7" x14ac:dyDescent="0.2">
@@ -7739,7 +7738,7 @@
         <v>192</v>
       </c>
       <c r="G198" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="6:7" x14ac:dyDescent="0.2">
@@ -7747,7 +7746,7 @@
         <v>193</v>
       </c>
       <c r="G199" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="6:7" x14ac:dyDescent="0.2">
@@ -7755,7 +7754,7 @@
         <v>194</v>
       </c>
       <c r="G200" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="6:7" x14ac:dyDescent="0.2">
@@ -7763,7 +7762,7 @@
         <v>195</v>
       </c>
       <c r="G201" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="6:7" x14ac:dyDescent="0.2">
@@ -7771,7 +7770,7 @@
         <v>196</v>
       </c>
       <c r="G202" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="6:7" x14ac:dyDescent="0.2">
@@ -7779,7 +7778,7 @@
         <v>197</v>
       </c>
       <c r="G203" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="6:7" x14ac:dyDescent="0.2">
@@ -7787,7 +7786,7 @@
         <v>198</v>
       </c>
       <c r="G204" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="6:7" x14ac:dyDescent="0.2">
@@ -7795,7 +7794,7 @@
         <v>199</v>
       </c>
       <c r="G205" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="6:7" x14ac:dyDescent="0.2">
@@ -7803,7 +7802,7 @@
         <v>200</v>
       </c>
       <c r="G206" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="6:7" x14ac:dyDescent="0.2">
@@ -7811,7 +7810,7 @@
         <v>201</v>
       </c>
       <c r="G207" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="208" spans="6:7" x14ac:dyDescent="0.2">
@@ -7827,7 +7826,7 @@
         <v>203</v>
       </c>
       <c r="G209" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="6:7" x14ac:dyDescent="0.2">
@@ -7843,7 +7842,7 @@
         <v>205</v>
       </c>
       <c r="G211" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="6:7" x14ac:dyDescent="0.2">
@@ -7851,7 +7850,7 @@
         <v>206</v>
       </c>
       <c r="G212" s="1">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="6:7" x14ac:dyDescent="0.2">
@@ -7859,7 +7858,7 @@
         <v>207</v>
       </c>
       <c r="G213" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="6:7" x14ac:dyDescent="0.2">
@@ -7867,7 +7866,7 @@
         <v>208</v>
       </c>
       <c r="G214" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="6:7" x14ac:dyDescent="0.2">
@@ -7875,7 +7874,7 @@
         <v>209</v>
       </c>
       <c r="G215" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216" spans="6:7" x14ac:dyDescent="0.2">
@@ -7883,7 +7882,7 @@
         <v>210</v>
       </c>
       <c r="G216" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="6:7" x14ac:dyDescent="0.2">
@@ -7891,7 +7890,7 @@
         <v>211</v>
       </c>
       <c r="G217" s="1">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="6:7" x14ac:dyDescent="0.2">
@@ -7899,7 +7898,7 @@
         <v>212</v>
       </c>
       <c r="G218" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="6:7" x14ac:dyDescent="0.2">
@@ -7907,7 +7906,7 @@
         <v>213</v>
       </c>
       <c r="G219" s="1">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="6:7" x14ac:dyDescent="0.2">
@@ -7915,7 +7914,7 @@
         <v>214</v>
       </c>
       <c r="G220" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221" spans="6:7" x14ac:dyDescent="0.2">
@@ -7923,7 +7922,7 @@
         <v>215</v>
       </c>
       <c r="G221" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="6:7" x14ac:dyDescent="0.2">
@@ -7931,7 +7930,7 @@
         <v>216</v>
       </c>
       <c r="G222" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="6:7" x14ac:dyDescent="0.2">
@@ -7939,7 +7938,7 @@
         <v>217</v>
       </c>
       <c r="G223" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224" spans="6:7" x14ac:dyDescent="0.2">
@@ -7947,7 +7946,7 @@
         <v>218</v>
       </c>
       <c r="G224" s="1">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="225" spans="6:7" x14ac:dyDescent="0.2">
@@ -7955,7 +7954,7 @@
         <v>219</v>
       </c>
       <c r="G225" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="6:7" x14ac:dyDescent="0.2">
@@ -7963,7 +7962,7 @@
         <v>220</v>
       </c>
       <c r="G226" s="1">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="227" spans="6:7" x14ac:dyDescent="0.2">
@@ -7971,7 +7970,7 @@
         <v>221</v>
       </c>
       <c r="G227" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="228" spans="6:7" x14ac:dyDescent="0.2">
@@ -7979,7 +7978,7 @@
         <v>222</v>
       </c>
       <c r="G228" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229" spans="6:7" x14ac:dyDescent="0.2">
@@ -7987,7 +7986,7 @@
         <v>223</v>
       </c>
       <c r="G229" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230" spans="6:7" x14ac:dyDescent="0.2">
@@ -7995,7 +7994,7 @@
         <v>224</v>
       </c>
       <c r="G230" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231" spans="6:7" x14ac:dyDescent="0.2">
@@ -8003,7 +8002,7 @@
         <v>225</v>
       </c>
       <c r="G231" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="232" spans="6:7" x14ac:dyDescent="0.2">
@@ -8011,7 +8010,7 @@
         <v>226</v>
       </c>
       <c r="G232" s="1">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233" spans="6:7" x14ac:dyDescent="0.2">
@@ -8019,7 +8018,7 @@
         <v>227</v>
       </c>
       <c r="G233" s="1">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="234" spans="6:7" x14ac:dyDescent="0.2">
@@ -8027,7 +8026,7 @@
         <v>228</v>
       </c>
       <c r="G234" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="6:7" x14ac:dyDescent="0.2">
@@ -8035,7 +8034,7 @@
         <v>229</v>
       </c>
       <c r="G235" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="236" spans="6:7" x14ac:dyDescent="0.2">
@@ -8043,7 +8042,7 @@
         <v>230</v>
       </c>
       <c r="G236" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="237" spans="6:7" x14ac:dyDescent="0.2">
@@ -8051,7 +8050,7 @@
         <v>231</v>
       </c>
       <c r="G237" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="238" spans="6:7" x14ac:dyDescent="0.2">
@@ -8059,7 +8058,7 @@
         <v>232</v>
       </c>
       <c r="G238" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="239" spans="6:7" x14ac:dyDescent="0.2">
@@ -8067,7 +8066,7 @@
         <v>233</v>
       </c>
       <c r="G239" s="1">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240" spans="6:7" x14ac:dyDescent="0.2">
@@ -8075,7 +8074,7 @@
         <v>234</v>
       </c>
       <c r="G240" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="241" spans="6:7" x14ac:dyDescent="0.2">
@@ -8083,7 +8082,7 @@
         <v>235</v>
       </c>
       <c r="G241" s="1">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="242" spans="6:7" x14ac:dyDescent="0.2">
@@ -8091,7 +8090,7 @@
         <v>236</v>
       </c>
       <c r="G242" s="1">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243" spans="6:7" x14ac:dyDescent="0.2">
@@ -8099,7 +8098,7 @@
         <v>237</v>
       </c>
       <c r="G243" s="1">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.2">
@@ -8107,7 +8106,7 @@
         <v>238</v>
       </c>
       <c r="G244" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="245" spans="6:7" x14ac:dyDescent="0.2">
@@ -8115,7 +8114,7 @@
         <v>239</v>
       </c>
       <c r="G245" s="1">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="246" spans="6:7" x14ac:dyDescent="0.2">
@@ -8123,7 +8122,7 @@
         <v>240</v>
       </c>
       <c r="G246" s="1">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="247" spans="6:7" x14ac:dyDescent="0.2">
@@ -8131,7 +8130,7 @@
         <v>241</v>
       </c>
       <c r="G247" s="1">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="248" spans="6:7" x14ac:dyDescent="0.2">
@@ -8139,7 +8138,7 @@
         <v>242</v>
       </c>
       <c r="G248" s="1">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="249" spans="6:7" x14ac:dyDescent="0.2">
@@ -8147,7 +8146,7 @@
         <v>243</v>
       </c>
       <c r="G249" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="6:7" x14ac:dyDescent="0.2">
@@ -8155,7 +8154,7 @@
         <v>244</v>
       </c>
       <c r="G250" s="1">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="251" spans="6:7" x14ac:dyDescent="0.2">
@@ -8163,7 +8162,7 @@
         <v>245</v>
       </c>
       <c r="G251" s="1">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="252" spans="6:7" x14ac:dyDescent="0.2">
@@ -8171,7 +8170,7 @@
         <v>246</v>
       </c>
       <c r="G252" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="253" spans="6:7" x14ac:dyDescent="0.2">
@@ -8179,7 +8178,7 @@
         <v>247</v>
       </c>
       <c r="G253" s="1">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="254" spans="6:7" x14ac:dyDescent="0.2">
@@ -8187,7 +8186,7 @@
         <v>248</v>
       </c>
       <c r="G254" s="1">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="255" spans="6:7" x14ac:dyDescent="0.2">
@@ -8195,7 +8194,7 @@
         <v>249</v>
       </c>
       <c r="G255" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="256" spans="6:7" x14ac:dyDescent="0.2">
@@ -8211,7 +8210,7 @@
         <v>251</v>
       </c>
       <c r="G257" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="258" spans="6:7" x14ac:dyDescent="0.2">
@@ -8219,7 +8218,7 @@
         <v>252</v>
       </c>
       <c r="G258" s="1">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="259" spans="6:7" x14ac:dyDescent="0.2">
@@ -8227,7 +8226,7 @@
         <v>253</v>
       </c>
       <c r="G259" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="260" spans="6:7" x14ac:dyDescent="0.2">
@@ -8235,7 +8234,7 @@
         <v>254</v>
       </c>
       <c r="G260" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="261" spans="6:7" x14ac:dyDescent="0.2">
@@ -8243,7 +8242,7 @@
         <v>255</v>
       </c>
       <c r="G261" s="1">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="262" spans="6:7" x14ac:dyDescent="0.2">
@@ -8251,7 +8250,7 @@
         <v>256</v>
       </c>
       <c r="G262" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="263" spans="6:7" x14ac:dyDescent="0.2">
@@ -8259,7 +8258,7 @@
         <v>257</v>
       </c>
       <c r="G263" s="1">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="264" spans="6:7" x14ac:dyDescent="0.2">
@@ -8267,7 +8266,7 @@
         <v>258</v>
       </c>
       <c r="G264" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265" spans="6:7" x14ac:dyDescent="0.2">
@@ -8275,7 +8274,7 @@
         <v>259</v>
       </c>
       <c r="G265" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="266" spans="6:7" x14ac:dyDescent="0.2">
@@ -8283,7 +8282,7 @@
         <v>260</v>
       </c>
       <c r="G266" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267" spans="6:7" x14ac:dyDescent="0.2">
@@ -8291,7 +8290,7 @@
         <v>261</v>
       </c>
       <c r="G267" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="268" spans="6:7" x14ac:dyDescent="0.2">
@@ -8299,7 +8298,7 @@
         <v>262</v>
       </c>
       <c r="G268" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="269" spans="6:7" x14ac:dyDescent="0.2">
@@ -8307,7 +8306,7 @@
         <v>263</v>
       </c>
       <c r="G269" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="270" spans="6:7" x14ac:dyDescent="0.2">
@@ -8315,7 +8314,7 @@
         <v>264</v>
       </c>
       <c r="G270" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="271" spans="6:7" x14ac:dyDescent="0.2">
@@ -8323,7 +8322,7 @@
         <v>265</v>
       </c>
       <c r="G271" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="272" spans="6:7" x14ac:dyDescent="0.2">
@@ -8331,7 +8330,7 @@
         <v>266</v>
       </c>
       <c r="G272" s="1">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="273" spans="6:7" x14ac:dyDescent="0.2">
@@ -8339,7 +8338,7 @@
         <v>267</v>
       </c>
       <c r="G273" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="274" spans="6:7" x14ac:dyDescent="0.2">
@@ -8347,7 +8346,7 @@
         <v>268</v>
       </c>
       <c r="G274" s="1">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="275" spans="6:7" x14ac:dyDescent="0.2">
@@ -8355,7 +8354,7 @@
         <v>269</v>
       </c>
       <c r="G275" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="276" spans="6:7" x14ac:dyDescent="0.2">
@@ -8363,7 +8362,7 @@
         <v>270</v>
       </c>
       <c r="G276" s="1">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" spans="6:7" x14ac:dyDescent="0.2">
@@ -8371,7 +8370,7 @@
         <v>271</v>
       </c>
       <c r="G277" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="278" spans="6:7" x14ac:dyDescent="0.2">
@@ -8379,7 +8378,7 @@
         <v>272</v>
       </c>
       <c r="G278" s="1">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="279" spans="6:7" x14ac:dyDescent="0.2">
@@ -8387,7 +8386,7 @@
         <v>273</v>
       </c>
       <c r="G279" s="1">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="280" spans="6:7" x14ac:dyDescent="0.2">
@@ -8395,7 +8394,7 @@
         <v>274</v>
       </c>
       <c r="G280" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="281" spans="6:7" x14ac:dyDescent="0.2">
@@ -8403,7 +8402,7 @@
         <v>275</v>
       </c>
       <c r="G281" s="1">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="282" spans="6:7" x14ac:dyDescent="0.2">
@@ -8419,7 +8418,7 @@
         <v>277</v>
       </c>
       <c r="G283" s="1">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="284" spans="6:7" x14ac:dyDescent="0.2">
@@ -8427,7 +8426,7 @@
         <v>278</v>
       </c>
       <c r="G284" s="1">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="285" spans="6:7" x14ac:dyDescent="0.2">
@@ -8435,7 +8434,7 @@
         <v>279</v>
       </c>
       <c r="G285" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="286" spans="6:7" x14ac:dyDescent="0.2">
@@ -8443,7 +8442,7 @@
         <v>280</v>
       </c>
       <c r="G286" s="1">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="287" spans="6:7" x14ac:dyDescent="0.2">
@@ -8451,7 +8450,7 @@
         <v>281</v>
       </c>
       <c r="G287" s="1">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="288" spans="6:7" x14ac:dyDescent="0.2">
@@ -8459,7 +8458,7 @@
         <v>282</v>
       </c>
       <c r="G288" s="1">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289" spans="6:7" x14ac:dyDescent="0.2">
@@ -8467,7 +8466,7 @@
         <v>283</v>
       </c>
       <c r="G289" s="1">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="290" spans="6:7" x14ac:dyDescent="0.2">
@@ -8475,7 +8474,7 @@
         <v>284</v>
       </c>
       <c r="G290" s="1">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="291" spans="6:7" x14ac:dyDescent="0.2">
@@ -8483,7 +8482,7 @@
         <v>285</v>
       </c>
       <c r="G291" s="1">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="292" spans="6:7" x14ac:dyDescent="0.2">
@@ -8491,7 +8490,7 @@
         <v>286</v>
       </c>
       <c r="G292" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="293" spans="6:7" x14ac:dyDescent="0.2">
@@ -8499,7 +8498,7 @@
         <v>287</v>
       </c>
       <c r="G293" s="1">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="294" spans="6:7" x14ac:dyDescent="0.2">
@@ -8507,7 +8506,7 @@
         <v>288</v>
       </c>
       <c r="G294" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="295" spans="6:7" x14ac:dyDescent="0.2">
@@ -8515,7 +8514,7 @@
         <v>289</v>
       </c>
       <c r="G295" s="1">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296" spans="6:7" x14ac:dyDescent="0.2">
@@ -8523,7 +8522,7 @@
         <v>290</v>
       </c>
       <c r="G296" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="297" spans="6:7" x14ac:dyDescent="0.2">
@@ -8531,7 +8530,7 @@
         <v>291</v>
       </c>
       <c r="G297" s="1">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="298" spans="6:7" x14ac:dyDescent="0.2">
@@ -8539,7 +8538,7 @@
         <v>292</v>
       </c>
       <c r="G298" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299" spans="6:7" x14ac:dyDescent="0.2">
@@ -8547,7 +8546,7 @@
         <v>293</v>
       </c>
       <c r="G299" s="1">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="300" spans="6:7" x14ac:dyDescent="0.2">
@@ -8555,7 +8554,7 @@
         <v>294</v>
       </c>
       <c r="G300" s="1">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="301" spans="6:7" x14ac:dyDescent="0.2">
@@ -8563,7 +8562,7 @@
         <v>295</v>
       </c>
       <c r="G301" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302" spans="6:7" x14ac:dyDescent="0.2">
@@ -8571,7 +8570,7 @@
         <v>296</v>
       </c>
       <c r="G302" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="303" spans="6:7" x14ac:dyDescent="0.2">
@@ -8579,7 +8578,7 @@
         <v>297</v>
       </c>
       <c r="G303" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="304" spans="6:7" x14ac:dyDescent="0.2">
@@ -8587,7 +8586,7 @@
         <v>298</v>
       </c>
       <c r="G304" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="305" spans="6:7" x14ac:dyDescent="0.2">
@@ -8595,7 +8594,7 @@
         <v>299</v>
       </c>
       <c r="G305" s="1">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="306" spans="6:7" x14ac:dyDescent="0.2">
@@ -8603,7 +8602,7 @@
         <v>300</v>
       </c>
       <c r="G306" s="1">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="307" spans="6:7" x14ac:dyDescent="0.2">
@@ -8611,7 +8610,7 @@
         <v>301</v>
       </c>
       <c r="G307" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="308" spans="6:7" x14ac:dyDescent="0.2">
@@ -8619,7 +8618,7 @@
         <v>302</v>
       </c>
       <c r="G308" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="309" spans="6:7" x14ac:dyDescent="0.2">
@@ -8627,7 +8626,7 @@
         <v>303</v>
       </c>
       <c r="G309" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="310" spans="6:7" x14ac:dyDescent="0.2">
@@ -8635,7 +8634,7 @@
         <v>304</v>
       </c>
       <c r="G310" s="1">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="311" spans="6:7" x14ac:dyDescent="0.2">
@@ -8643,7 +8642,7 @@
         <v>305</v>
       </c>
       <c r="G311" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="312" spans="6:7" x14ac:dyDescent="0.2">
@@ -8651,7 +8650,7 @@
         <v>306</v>
       </c>
       <c r="G312" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="313" spans="6:7" x14ac:dyDescent="0.2">
@@ -8659,7 +8658,7 @@
         <v>307</v>
       </c>
       <c r="G313" s="1">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="314" spans="6:7" x14ac:dyDescent="0.2">
@@ -8667,7 +8666,7 @@
         <v>308</v>
       </c>
       <c r="G314" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="315" spans="6:7" x14ac:dyDescent="0.2">
@@ -8675,7 +8674,7 @@
         <v>309</v>
       </c>
       <c r="G315" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316" spans="6:7" x14ac:dyDescent="0.2">
@@ -8683,7 +8682,7 @@
         <v>310</v>
       </c>
       <c r="G316" s="1">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="317" spans="6:7" x14ac:dyDescent="0.2">
@@ -8691,7 +8690,7 @@
         <v>311</v>
       </c>
       <c r="G317" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="318" spans="6:7" x14ac:dyDescent="0.2">
@@ -8699,7 +8698,7 @@
         <v>312</v>
       </c>
       <c r="G318" s="1">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="319" spans="6:7" x14ac:dyDescent="0.2">
@@ -8707,7 +8706,7 @@
         <v>313</v>
       </c>
       <c r="G319" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="320" spans="6:7" x14ac:dyDescent="0.2">
@@ -8715,7 +8714,7 @@
         <v>314</v>
       </c>
       <c r="G320" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="321" spans="6:7" x14ac:dyDescent="0.2">
@@ -8723,7 +8722,7 @@
         <v>315</v>
       </c>
       <c r="G321" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="6:7" x14ac:dyDescent="0.2">
@@ -8731,7 +8730,7 @@
         <v>316</v>
       </c>
       <c r="G322" s="1">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="323" spans="6:7" x14ac:dyDescent="0.2">
@@ -8739,7 +8738,7 @@
         <v>317</v>
       </c>
       <c r="G323" s="1">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="324" spans="6:7" x14ac:dyDescent="0.2">
@@ -8747,7 +8746,7 @@
         <v>318</v>
       </c>
       <c r="G324" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325" spans="6:7" x14ac:dyDescent="0.2">
@@ -8755,7 +8754,7 @@
         <v>319</v>
       </c>
       <c r="G325" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="326" spans="6:7" x14ac:dyDescent="0.2">
@@ -8763,7 +8762,7 @@
         <v>320</v>
       </c>
       <c r="G326" s="1">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="327" spans="6:7" x14ac:dyDescent="0.2">
@@ -8771,7 +8770,7 @@
         <v>321</v>
       </c>
       <c r="G327" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="328" spans="6:7" x14ac:dyDescent="0.2">
@@ -8779,7 +8778,7 @@
         <v>322</v>
       </c>
       <c r="G328" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="6:7" x14ac:dyDescent="0.2">
@@ -8787,7 +8786,7 @@
         <v>323</v>
       </c>
       <c r="G329" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="330" spans="6:7" x14ac:dyDescent="0.2">
@@ -8795,7 +8794,7 @@
         <v>324</v>
       </c>
       <c r="G330" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="331" spans="6:7" x14ac:dyDescent="0.2">
@@ -8811,7 +8810,7 @@
         <v>326</v>
       </c>
       <c r="G332" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="333" spans="6:7" x14ac:dyDescent="0.2">
@@ -8819,7 +8818,7 @@
         <v>327</v>
       </c>
       <c r="G333" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="334" spans="6:7" x14ac:dyDescent="0.2">
@@ -8827,7 +8826,7 @@
         <v>328</v>
       </c>
       <c r="G334" s="1">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="335" spans="6:7" x14ac:dyDescent="0.2">
@@ -8835,7 +8834,7 @@
         <v>329</v>
       </c>
       <c r="G335" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="336" spans="6:7" x14ac:dyDescent="0.2">
@@ -8843,7 +8842,7 @@
         <v>330</v>
       </c>
       <c r="G336" s="1">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="337" spans="6:7" x14ac:dyDescent="0.2">
@@ -8851,7 +8850,7 @@
         <v>331</v>
       </c>
       <c r="G337" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="338" spans="6:7" x14ac:dyDescent="0.2">
@@ -8859,7 +8858,7 @@
         <v>332</v>
       </c>
       <c r="G338" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="339" spans="6:7" x14ac:dyDescent="0.2">
@@ -8867,7 +8866,7 @@
         <v>333</v>
       </c>
       <c r="G339" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="340" spans="6:7" x14ac:dyDescent="0.2">
@@ -8875,7 +8874,7 @@
         <v>334</v>
       </c>
       <c r="G340" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="341" spans="6:7" x14ac:dyDescent="0.2">
@@ -8883,7 +8882,7 @@
         <v>335</v>
       </c>
       <c r="G341" s="1">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="342" spans="6:7" x14ac:dyDescent="0.2">
@@ -8891,7 +8890,7 @@
         <v>336</v>
       </c>
       <c r="G342" s="1">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="343" spans="6:7" x14ac:dyDescent="0.2">
@@ -8899,7 +8898,7 @@
         <v>337</v>
       </c>
       <c r="G343" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="344" spans="6:7" x14ac:dyDescent="0.2">
@@ -8907,7 +8906,7 @@
         <v>338</v>
       </c>
       <c r="G344" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="345" spans="6:7" x14ac:dyDescent="0.2">
@@ -8915,7 +8914,7 @@
         <v>339</v>
       </c>
       <c r="G345" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="346" spans="6:7" x14ac:dyDescent="0.2">
@@ -8923,7 +8922,7 @@
         <v>340</v>
       </c>
       <c r="G346" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="347" spans="6:7" x14ac:dyDescent="0.2">
@@ -8931,7 +8930,7 @@
         <v>341</v>
       </c>
       <c r="G347" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="348" spans="6:7" x14ac:dyDescent="0.2">
@@ -8939,7 +8938,7 @@
         <v>342</v>
       </c>
       <c r="G348" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="349" spans="6:7" x14ac:dyDescent="0.2">
@@ -8947,7 +8946,7 @@
         <v>343</v>
       </c>
       <c r="G349" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="350" spans="6:7" x14ac:dyDescent="0.2">
@@ -8955,7 +8954,7 @@
         <v>344</v>
       </c>
       <c r="G350" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="351" spans="6:7" x14ac:dyDescent="0.2">
@@ -8963,7 +8962,7 @@
         <v>345</v>
       </c>
       <c r="G351" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="352" spans="6:7" x14ac:dyDescent="0.2">
@@ -8979,7 +8978,7 @@
         <v>347</v>
       </c>
       <c r="G353" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="354" spans="6:7" x14ac:dyDescent="0.2">
@@ -8987,7 +8986,7 @@
         <v>348</v>
       </c>
       <c r="G354" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="355" spans="6:7" x14ac:dyDescent="0.2">
@@ -8995,7 +8994,7 @@
         <v>349</v>
       </c>
       <c r="G355" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="356" spans="6:7" x14ac:dyDescent="0.2">
@@ -9003,7 +9002,7 @@
         <v>350</v>
       </c>
       <c r="G356" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="357" spans="6:7" x14ac:dyDescent="0.2">
@@ -9011,7 +9010,7 @@
         <v>351</v>
       </c>
       <c r="G357" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="358" spans="6:7" x14ac:dyDescent="0.2">
@@ -9019,7 +9018,7 @@
         <v>352</v>
       </c>
       <c r="G358" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="359" spans="6:7" x14ac:dyDescent="0.2">
@@ -9027,7 +9026,7 @@
         <v>353</v>
       </c>
       <c r="G359" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="360" spans="6:7" x14ac:dyDescent="0.2">
@@ -9035,7 +9034,7 @@
         <v>354</v>
       </c>
       <c r="G360" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="361" spans="6:7" x14ac:dyDescent="0.2">
@@ -9043,7 +9042,7 @@
         <v>355</v>
       </c>
       <c r="G361" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="362" spans="6:7" x14ac:dyDescent="0.2">
@@ -9051,7 +9050,7 @@
         <v>356</v>
       </c>
       <c r="G362" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="363" spans="6:7" x14ac:dyDescent="0.2">
@@ -9059,7 +9058,7 @@
         <v>357</v>
       </c>
       <c r="G363" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="364" spans="6:7" x14ac:dyDescent="0.2">
@@ -9067,7 +9066,7 @@
         <v>358</v>
       </c>
       <c r="G364" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="365" spans="6:7" x14ac:dyDescent="0.2">
@@ -9075,7 +9074,7 @@
         <v>359</v>
       </c>
       <c r="G365" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="366" spans="6:7" x14ac:dyDescent="0.2">
@@ -9083,7 +9082,7 @@
         <v>360</v>
       </c>
       <c r="G366" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="367" spans="6:7" x14ac:dyDescent="0.2">
@@ -9091,7 +9090,7 @@
         <v>361</v>
       </c>
       <c r="G367" s="1">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="368" spans="6:7" x14ac:dyDescent="0.2">
@@ -9099,7 +9098,7 @@
         <v>362</v>
       </c>
       <c r="G368" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="369" spans="6:7" x14ac:dyDescent="0.2">
@@ -9107,7 +9106,7 @@
         <v>363</v>
       </c>
       <c r="G369" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="370" spans="6:7" x14ac:dyDescent="0.2">
@@ -9115,7 +9114,7 @@
         <v>364</v>
       </c>
       <c r="G370" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="371" spans="6:7" x14ac:dyDescent="0.2">
@@ -9123,7 +9122,7 @@
         <v>365</v>
       </c>
       <c r="G371" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="372" spans="6:7" x14ac:dyDescent="0.2">
@@ -9131,7 +9130,7 @@
         <v>366</v>
       </c>
       <c r="G372" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="373" spans="6:7" x14ac:dyDescent="0.2">
@@ -9139,7 +9138,7 @@
         <v>367</v>
       </c>
       <c r="G373" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="374" spans="6:7" x14ac:dyDescent="0.2">
@@ -9147,7 +9146,7 @@
         <v>368</v>
       </c>
       <c r="G374" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="375" spans="6:7" x14ac:dyDescent="0.2">
@@ -9155,7 +9154,7 @@
         <v>369</v>
       </c>
       <c r="G375" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="376" spans="6:7" x14ac:dyDescent="0.2">
@@ -9163,7 +9162,7 @@
         <v>370</v>
       </c>
       <c r="G376" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="377" spans="6:7" x14ac:dyDescent="0.2">
@@ -9171,7 +9170,7 @@
         <v>371</v>
       </c>
       <c r="G377" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="378" spans="6:7" x14ac:dyDescent="0.2">
@@ -9179,7 +9178,7 @@
         <v>372</v>
       </c>
       <c r="G378" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="379" spans="6:7" x14ac:dyDescent="0.2">
@@ -9187,7 +9186,7 @@
         <v>373</v>
       </c>
       <c r="G379" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="380" spans="6:7" x14ac:dyDescent="0.2">
@@ -9195,7 +9194,7 @@
         <v>374</v>
       </c>
       <c r="G380" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="381" spans="6:7" x14ac:dyDescent="0.2">
@@ -9203,7 +9202,7 @@
         <v>375</v>
       </c>
       <c r="G381" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="382" spans="6:7" x14ac:dyDescent="0.2">
@@ -9211,7 +9210,7 @@
         <v>376</v>
       </c>
       <c r="G382" s="1">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="383" spans="6:7" x14ac:dyDescent="0.2">
@@ -9219,7 +9218,7 @@
         <v>377</v>
       </c>
       <c r="G383" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="384" spans="6:7" x14ac:dyDescent="0.2">
@@ -9227,7 +9226,7 @@
         <v>378</v>
       </c>
       <c r="G384" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="385" spans="6:7" x14ac:dyDescent="0.2">
@@ -9235,7 +9234,7 @@
         <v>379</v>
       </c>
       <c r="G385" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="386" spans="6:7" x14ac:dyDescent="0.2">
@@ -9243,7 +9242,7 @@
         <v>380</v>
       </c>
       <c r="G386" s="1">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="387" spans="6:7" x14ac:dyDescent="0.2">
@@ -9251,7 +9250,7 @@
         <v>381</v>
       </c>
       <c r="G387" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="388" spans="6:7" x14ac:dyDescent="0.2">
@@ -9259,7 +9258,7 @@
         <v>382</v>
       </c>
       <c r="G388" s="1">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="389" spans="6:7" x14ac:dyDescent="0.2">
@@ -9267,7 +9266,7 @@
         <v>383</v>
       </c>
       <c r="G389" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="390" spans="6:7" x14ac:dyDescent="0.2">
@@ -9275,7 +9274,7 @@
         <v>384</v>
       </c>
       <c r="G390" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="391" spans="6:7" x14ac:dyDescent="0.2">
@@ -9283,7 +9282,7 @@
         <v>385</v>
       </c>
       <c r="G391" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="392" spans="6:7" x14ac:dyDescent="0.2">
@@ -9291,7 +9290,7 @@
         <v>386</v>
       </c>
       <c r="G392" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="393" spans="6:7" x14ac:dyDescent="0.2">
@@ -9299,7 +9298,7 @@
         <v>387</v>
       </c>
       <c r="G393" s="1">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="394" spans="6:7" x14ac:dyDescent="0.2">
@@ -9307,7 +9306,7 @@
         <v>388</v>
       </c>
       <c r="G394" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="395" spans="6:7" x14ac:dyDescent="0.2">
@@ -9315,7 +9314,7 @@
         <v>389</v>
       </c>
       <c r="G395" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="396" spans="6:7" x14ac:dyDescent="0.2">
@@ -9323,7 +9322,7 @@
         <v>390</v>
       </c>
       <c r="G396" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="397" spans="6:7" x14ac:dyDescent="0.2">
@@ -9331,7 +9330,7 @@
         <v>391</v>
       </c>
       <c r="G397" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="398" spans="6:7" x14ac:dyDescent="0.2">
@@ -9339,7 +9338,7 @@
         <v>392</v>
       </c>
       <c r="G398" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="6:7" x14ac:dyDescent="0.2">
@@ -9347,7 +9346,7 @@
         <v>393</v>
       </c>
       <c r="G399" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="400" spans="6:7" x14ac:dyDescent="0.2">
@@ -9355,7 +9354,7 @@
         <v>394</v>
       </c>
       <c r="G400" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="401" spans="6:7" x14ac:dyDescent="0.2">
@@ -9363,7 +9362,7 @@
         <v>395</v>
       </c>
       <c r="G401" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="402" spans="6:7" x14ac:dyDescent="0.2">
@@ -9371,7 +9370,7 @@
         <v>396</v>
       </c>
       <c r="G402" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="403" spans="6:7" x14ac:dyDescent="0.2">
@@ -9379,7 +9378,7 @@
         <v>397</v>
       </c>
       <c r="G403" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="404" spans="6:7" x14ac:dyDescent="0.2">
@@ -9387,7 +9386,7 @@
         <v>398</v>
       </c>
       <c r="G404" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="405" spans="6:7" x14ac:dyDescent="0.2">
@@ -9395,7 +9394,7 @@
         <v>399</v>
       </c>
       <c r="G405" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="406" spans="6:7" x14ac:dyDescent="0.2">
@@ -9403,7 +9402,7 @@
         <v>400</v>
       </c>
       <c r="G406" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/lab7analysis.xlsx
+++ b/lab7analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D691B-5198-8F4A-ADE1-DE39F92760F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D060D1-4B84-3846-B32B-0620BFA518BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{685E1627-B16A-4E45-983F-3B881B2C1CDA}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{9B7A9BD6-F104-DE46-9EDB-47141E5F297D}" name="isconnected2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/isconnected2.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/isconnected.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Edge Number</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Probability that is connected</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -584,238 +587,238 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>3.1</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.6</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.5</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.8</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.5</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>8.8000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.1</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>13.2</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15.2</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>17</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>17.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15.8</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.5</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>22.2</c:v>
+                  <c:v>24.1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24.1</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>27.4</c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.6</c:v>
+                  <c:v>34.9</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>37.5</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37</c:v>
+                  <c:v>39.1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>38.4</c:v>
+                  <c:v>43.2</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>47.9</c:v>
+                  <c:v>45.7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.8</c:v>
+                  <c:v>49.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>53.1</c:v>
+                  <c:v>51.6</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>53.9</c:v>
+                  <c:v>54.9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57.7</c:v>
+                  <c:v>59.2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>62.1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>63.8</c:v>
+                  <c:v>66.2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>70.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>71.900000000000006</c:v>
+                  <c:v>70.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>77.2</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>76.8</c:v>
+                  <c:v>77.3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>79.7</c:v>
+                  <c:v>78.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>82.4</c:v>
+                  <c:v>83.2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>84.4</c:v>
+                  <c:v>87.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>88.2</c:v>
+                  <c:v>88.3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>90.6</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>92.6</c:v>
+                  <c:v>91.6</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>92.9</c:v>
+                  <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>95.2</c:v>
+                  <c:v>94.7</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>96.4</c:v>
+                  <c:v>95.4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>96.4</c:v>
+                  <c:v>97.3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>98.1</c:v>
+                  <c:v>97.9</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>98.2</c:v>
+                  <c:v>98.9</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>98.9</c:v>
+                  <c:v>97.7</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>99.4</c:v>
+                  <c:v>99.3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>99.3</c:v>
+                  <c:v>99.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>99.5</c:v>
+                  <c:v>99.6</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>99.9</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>99.9</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>100</c:v>
@@ -1286,13 +1289,12 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$F$6:$F$406</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="401"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>s</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2494,8 +2496,8 @@
                 <c:pt idx="400">
                   <c:v>400</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2951,46 +2953,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>3</c:v>
@@ -2999,511 +3001,511 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="168">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="171">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="173">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="183">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="174">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="184">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="187">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="177">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="188">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="190">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="191">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="191">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="192">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="194">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="199">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="204">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="200">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="205">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="215">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="203">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="216">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="219">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="214">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="220">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="221">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="223">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="225">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="224">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="226">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="227">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="226">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>34</c:v>
-                </c:pt>
                 <c:pt idx="228">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="231">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="242">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="232">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="243">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="249">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="235">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="250">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="252">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="237">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>58</c:v>
-                </c:pt>
                 <c:pt idx="253">
-                  <c:v>54</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>63</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="256">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="257">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="258">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="259">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="258">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="260">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="265">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="261">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>72</c:v>
-                </c:pt>
                 <c:pt idx="266">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="267">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="267">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="268">
-                  <c:v>67</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>62</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>70</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>67</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>69</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="274">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="276">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="275">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="277">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>74</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="280">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="281">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="281">
-                  <c:v>78</c:v>
-                </c:pt>
                 <c:pt idx="282">
-                  <c:v>77</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>77</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>81</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="286">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="289">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="290">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="296">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="297">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="301">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="302">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="290">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="295">
+                <c:pt idx="303">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="306">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="296">
+                <c:pt idx="307">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="308">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="297">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="298">
+                <c:pt idx="309">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="310">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="299">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="310">
+                <c:pt idx="311">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="312">
                   <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>83</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="315">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="317">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="316">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="317">
+                <c:pt idx="318">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="323">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="318">
+                <c:pt idx="324">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="326">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="319">
+                <c:pt idx="327">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="333">
                   <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>94</c:v>
@@ -3512,109 +3514,109 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>89</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>91</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="338">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="344">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="339">
+                <c:pt idx="345">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="340">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="341">
+                <c:pt idx="346">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="347">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>98</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="349">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="350">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="350">
+                <c:pt idx="351">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="351">
-                  <c:v>93</c:v>
-                </c:pt>
                 <c:pt idx="352">
-                  <c:v>95</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>94</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="354">
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>95</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>95</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="357">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="359">
                   <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>97</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>92</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>97</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>99</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="366">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>93</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>96</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>93</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>96</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>95</c:v>
@@ -3623,88 +3625,88 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="373">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="375">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="374">
+                <c:pt idx="376">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="379">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="375">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>98</c:v>
-                </c:pt>
                 <c:pt idx="380">
-                  <c:v>97</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>96</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="382">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="384">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="386">
                   <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="387">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>98</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="389">
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>97</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="391">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>94</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="394">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="396">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="397">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="397">
-                  <c:v>95</c:v>
-                </c:pt>
                 <c:pt idx="398">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="399">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="399">
-                  <c:v>96</c:v>
-                </c:pt>
                 <c:pt idx="400">
-                  <c:v>96</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5567,14 +5569,15 @@
   <dimension ref="C5:G406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
@@ -5598,8 +5601,8 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5694,7 +5697,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="1">
         <v>7</v>
@@ -5722,7 +5725,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>9</v>
@@ -5736,7 +5739,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="1">
         <v>10</v>
@@ -5750,7 +5753,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
@@ -5778,7 +5781,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F19" s="1">
         <v>13</v>
@@ -5792,7 +5795,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F20" s="1">
         <v>14</v>
@@ -5806,7 +5809,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F21" s="1">
         <v>15</v>
@@ -5820,7 +5823,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F22" s="1">
         <v>16</v>
@@ -5834,7 +5837,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F23" s="1">
         <v>17</v>
@@ -5848,7 +5851,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="F24" s="1">
         <v>18</v>
@@ -5862,7 +5865,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="F25" s="1">
         <v>19</v>
@@ -5876,7 +5879,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F26" s="1">
         <v>20</v>
@@ -5890,7 +5893,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="F27" s="1">
         <v>21</v>
@@ -5918,7 +5921,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="F29" s="1">
         <v>23</v>
@@ -5932,7 +5935,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="F30" s="1">
         <v>24</v>
@@ -5946,7 +5949,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="F31" s="1">
         <v>25</v>
@@ -5960,7 +5963,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>4.4000000000000004</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
         <v>26</v>
@@ -5974,7 +5977,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F33" s="1">
         <v>27</v>
@@ -5988,7 +5991,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>3.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F34" s="1">
         <v>28</v>
@@ -6002,7 +6005,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="F35" s="1">
         <v>29</v>
@@ -6016,7 +6019,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="F36" s="1">
         <v>30</v>
@@ -6030,7 +6033,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="F37" s="1">
         <v>31</v>
@@ -6044,7 +6047,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="F38" s="1">
         <v>32</v>
@@ -6058,7 +6061,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>8.8000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="F39" s="1">
         <v>33</v>
@@ -6072,7 +6075,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F40" s="1">
         <v>34</v>
@@ -6086,7 +6089,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="F41" s="1">
         <v>35</v>
@@ -6100,7 +6103,7 @@
         <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="F42" s="1">
         <v>36</v>
@@ -6114,7 +6117,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>13.2</v>
+        <v>10.8</v>
       </c>
       <c r="F43" s="1">
         <v>37</v>
@@ -6128,7 +6131,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="F44" s="1">
         <v>38</v>
@@ -6142,7 +6145,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="1">
-        <v>15.2</v>
+        <v>13.2</v>
       </c>
       <c r="F45" s="1">
         <v>39</v>
@@ -6156,7 +6159,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="1">
-        <v>17</v>
+        <v>15.4</v>
       </c>
       <c r="F46" s="1">
         <v>40</v>
@@ -6170,7 +6173,7 @@
         <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>16.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F47" s="1">
         <v>41</v>
@@ -6184,7 +6187,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>15.8</v>
+        <v>17.5</v>
       </c>
       <c r="F48" s="1">
         <v>42</v>
@@ -6198,7 +6201,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="1">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="F49" s="1">
         <v>43</v>
@@ -6212,7 +6215,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="1">
-        <v>22.2</v>
+        <v>24.1</v>
       </c>
       <c r="F50" s="1">
         <v>44</v>
@@ -6226,7 +6229,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="1">
-        <v>24.1</v>
+        <v>25.2</v>
       </c>
       <c r="F51" s="1">
         <v>45</v>
@@ -6240,7 +6243,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1">
         <v>46</v>
@@ -6254,7 +6257,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="1">
-        <v>27.4</v>
+        <v>30.2</v>
       </c>
       <c r="F53" s="1">
         <v>47</v>
@@ -6268,7 +6271,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>31.6</v>
+        <v>34.9</v>
       </c>
       <c r="F54" s="1">
         <v>48</v>
@@ -6282,7 +6285,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>37.5</v>
+        <v>35.5</v>
       </c>
       <c r="F55" s="1">
         <v>49</v>
@@ -6296,7 +6299,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>37</v>
+        <v>39.1</v>
       </c>
       <c r="F56" s="1">
         <v>50</v>
@@ -6310,7 +6313,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>38.4</v>
+        <v>43.2</v>
       </c>
       <c r="F57" s="1">
         <v>51</v>
@@ -6338,7 +6341,7 @@
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>47.9</v>
+        <v>45.7</v>
       </c>
       <c r="F59" s="1">
         <v>53</v>
@@ -6352,7 +6355,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>48.8</v>
+        <v>49.8</v>
       </c>
       <c r="F60" s="1">
         <v>54</v>
@@ -6366,7 +6369,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>53.1</v>
+        <v>51.6</v>
       </c>
       <c r="F61" s="1">
         <v>55</v>
@@ -6380,7 +6383,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>53.9</v>
+        <v>54.9</v>
       </c>
       <c r="F62" s="1">
         <v>56</v>
@@ -6394,7 +6397,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>57.7</v>
+        <v>59.2</v>
       </c>
       <c r="F63" s="1">
         <v>57</v>
@@ -6408,7 +6411,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>66.400000000000006</v>
+        <v>62.1</v>
       </c>
       <c r="F64" s="1">
         <v>58</v>
@@ -6422,7 +6425,7 @@
         <v>59</v>
       </c>
       <c r="D65" s="1">
-        <v>63.8</v>
+        <v>66.2</v>
       </c>
       <c r="F65" s="1">
         <v>59</v>
@@ -6436,7 +6439,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>66.400000000000006</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="F66" s="1">
         <v>60</v>
@@ -6450,7 +6453,7 @@
         <v>61</v>
       </c>
       <c r="D67" s="1">
-        <v>71.900000000000006</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="F67" s="1">
         <v>61</v>
@@ -6464,7 +6467,7 @@
         <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="F68" s="1">
         <v>62</v>
@@ -6478,7 +6481,7 @@
         <v>63</v>
       </c>
       <c r="D69" s="1">
-        <v>76.8</v>
+        <v>77.3</v>
       </c>
       <c r="F69" s="1">
         <v>63</v>
@@ -6492,7 +6495,7 @@
         <v>64</v>
       </c>
       <c r="D70" s="1">
-        <v>79.7</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="F70" s="1">
         <v>64</v>
@@ -6506,7 +6509,7 @@
         <v>65</v>
       </c>
       <c r="D71" s="1">
-        <v>82.4</v>
+        <v>83.2</v>
       </c>
       <c r="F71" s="1">
         <v>65</v>
@@ -6520,7 +6523,7 @@
         <v>66</v>
       </c>
       <c r="D72" s="1">
-        <v>84.4</v>
+        <v>87.6</v>
       </c>
       <c r="F72" s="1">
         <v>66</v>
@@ -6534,7 +6537,7 @@
         <v>67</v>
       </c>
       <c r="D73" s="1">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="F73" s="1">
         <v>67</v>
@@ -6548,7 +6551,7 @@
         <v>68</v>
       </c>
       <c r="D74" s="1">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="F74" s="1">
         <v>68</v>
@@ -6562,7 +6565,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="1">
-        <v>92.6</v>
+        <v>91.6</v>
       </c>
       <c r="F75" s="1">
         <v>69</v>
@@ -6576,7 +6579,7 @@
         <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>92.9</v>
+        <v>93.7</v>
       </c>
       <c r="F76" s="1">
         <v>70</v>
@@ -6590,7 +6593,7 @@
         <v>71</v>
       </c>
       <c r="D77" s="1">
-        <v>95.2</v>
+        <v>94.7</v>
       </c>
       <c r="F77" s="1">
         <v>71</v>
@@ -6604,7 +6607,7 @@
         <v>72</v>
       </c>
       <c r="D78" s="1">
-        <v>96.4</v>
+        <v>95.4</v>
       </c>
       <c r="F78" s="1">
         <v>72</v>
@@ -6618,7 +6621,7 @@
         <v>73</v>
       </c>
       <c r="D79" s="1">
-        <v>96.4</v>
+        <v>97.3</v>
       </c>
       <c r="F79" s="1">
         <v>73</v>
@@ -6632,7 +6635,7 @@
         <v>74</v>
       </c>
       <c r="D80" s="1">
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="F80" s="1">
         <v>74</v>
@@ -6646,7 +6649,7 @@
         <v>75</v>
       </c>
       <c r="D81" s="1">
-        <v>98.2</v>
+        <v>98.9</v>
       </c>
       <c r="F81" s="1">
         <v>75</v>
@@ -6660,7 +6663,7 @@
         <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>98.9</v>
+        <v>97.7</v>
       </c>
       <c r="F82" s="1">
         <v>76</v>
@@ -6674,7 +6677,7 @@
         <v>77</v>
       </c>
       <c r="D83" s="1">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="F83" s="1">
         <v>77</v>
@@ -6688,7 +6691,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="1">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="F84" s="1">
         <v>78</v>
@@ -6702,7 +6705,7 @@
         <v>79</v>
       </c>
       <c r="D85" s="1">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="F85" s="1">
         <v>79</v>
@@ -6716,7 +6719,7 @@
         <v>80</v>
       </c>
       <c r="D86" s="1">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="F86" s="1">
         <v>80</v>
@@ -6730,7 +6733,7 @@
         <v>81</v>
       </c>
       <c r="D87" s="1">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="F87" s="1">
         <v>81</v>
@@ -6744,7 +6747,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="F88" s="1">
         <v>82</v>
@@ -6772,7 +6775,7 @@
         <v>84</v>
       </c>
       <c r="D90" s="1">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="F90" s="1">
         <v>84</v>
@@ -7394,7 +7397,7 @@
         <v>149</v>
       </c>
       <c r="G155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.2">
@@ -7402,7 +7405,7 @@
         <v>150</v>
       </c>
       <c r="G156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.2">
@@ -7410,7 +7413,7 @@
         <v>151</v>
       </c>
       <c r="G157" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.2">
@@ -7418,7 +7421,7 @@
         <v>152</v>
       </c>
       <c r="G158" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="6:7" x14ac:dyDescent="0.2">
@@ -7434,7 +7437,7 @@
         <v>154</v>
       </c>
       <c r="G160" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.2">
@@ -7450,7 +7453,7 @@
         <v>156</v>
       </c>
       <c r="G162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.2">
@@ -7458,7 +7461,7 @@
         <v>157</v>
       </c>
       <c r="G163" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="6:7" x14ac:dyDescent="0.2">
@@ -7474,7 +7477,7 @@
         <v>159</v>
       </c>
       <c r="G165" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.2">
@@ -7490,7 +7493,7 @@
         <v>161</v>
       </c>
       <c r="G167" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="6:7" x14ac:dyDescent="0.2">
@@ -7498,7 +7501,7 @@
         <v>162</v>
       </c>
       <c r="G168" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.2">
@@ -7522,7 +7525,7 @@
         <v>165</v>
       </c>
       <c r="G171" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.2">
@@ -7530,7 +7533,7 @@
         <v>166</v>
       </c>
       <c r="G172" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.2">
@@ -7538,7 +7541,7 @@
         <v>167</v>
       </c>
       <c r="G173" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.2">
@@ -7546,7 +7549,7 @@
         <v>168</v>
       </c>
       <c r="G174" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.2">
@@ -7554,7 +7557,7 @@
         <v>169</v>
       </c>
       <c r="G175" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.2">
@@ -7562,7 +7565,7 @@
         <v>170</v>
       </c>
       <c r="G176" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.2">
@@ -7570,7 +7573,7 @@
         <v>171</v>
       </c>
       <c r="G177" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="6:7" x14ac:dyDescent="0.2">
@@ -7586,7 +7589,7 @@
         <v>173</v>
       </c>
       <c r="G179" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="6:7" x14ac:dyDescent="0.2">
@@ -7594,7 +7597,7 @@
         <v>174</v>
       </c>
       <c r="G180" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="6:7" x14ac:dyDescent="0.2">
@@ -7602,7 +7605,7 @@
         <v>175</v>
       </c>
       <c r="G181" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="6:7" x14ac:dyDescent="0.2">
@@ -7610,7 +7613,7 @@
         <v>176</v>
       </c>
       <c r="G182" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="6:7" x14ac:dyDescent="0.2">
@@ -7618,7 +7621,7 @@
         <v>177</v>
       </c>
       <c r="G183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="6:7" x14ac:dyDescent="0.2">
@@ -7626,7 +7629,7 @@
         <v>178</v>
       </c>
       <c r="G184" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="6:7" x14ac:dyDescent="0.2">
@@ -7634,7 +7637,7 @@
         <v>179</v>
       </c>
       <c r="G185" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="6:7" x14ac:dyDescent="0.2">
@@ -7642,7 +7645,7 @@
         <v>180</v>
       </c>
       <c r="G186" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="6:7" x14ac:dyDescent="0.2">
@@ -7650,7 +7653,7 @@
         <v>181</v>
       </c>
       <c r="G187" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="6:7" x14ac:dyDescent="0.2">
@@ -7658,7 +7661,7 @@
         <v>182</v>
       </c>
       <c r="G188" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="6:7" x14ac:dyDescent="0.2">
@@ -7666,7 +7669,7 @@
         <v>183</v>
       </c>
       <c r="G189" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="6:7" x14ac:dyDescent="0.2">
@@ -7674,7 +7677,7 @@
         <v>184</v>
       </c>
       <c r="G190" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="6:7" x14ac:dyDescent="0.2">
@@ -7682,7 +7685,7 @@
         <v>185</v>
       </c>
       <c r="G191" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="6:7" x14ac:dyDescent="0.2">
@@ -7690,7 +7693,7 @@
         <v>186</v>
       </c>
       <c r="G192" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="6:7" x14ac:dyDescent="0.2">
@@ -7698,7 +7701,7 @@
         <v>187</v>
       </c>
       <c r="G193" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="6:7" x14ac:dyDescent="0.2">
@@ -7706,7 +7709,7 @@
         <v>188</v>
       </c>
       <c r="G194" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="6:7" x14ac:dyDescent="0.2">
@@ -7722,7 +7725,7 @@
         <v>190</v>
       </c>
       <c r="G196" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="6:7" x14ac:dyDescent="0.2">
@@ -7730,7 +7733,7 @@
         <v>191</v>
       </c>
       <c r="G197" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="6:7" x14ac:dyDescent="0.2">
@@ -7738,7 +7741,7 @@
         <v>192</v>
       </c>
       <c r="G198" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="6:7" x14ac:dyDescent="0.2">
@@ -7746,7 +7749,7 @@
         <v>193</v>
       </c>
       <c r="G199" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="6:7" x14ac:dyDescent="0.2">
@@ -7762,7 +7765,7 @@
         <v>195</v>
       </c>
       <c r="G201" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="6:7" x14ac:dyDescent="0.2">
@@ -7770,7 +7773,7 @@
         <v>196</v>
       </c>
       <c r="G202" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="6:7" x14ac:dyDescent="0.2">
@@ -7778,7 +7781,7 @@
         <v>197</v>
       </c>
       <c r="G203" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="6:7" x14ac:dyDescent="0.2">
@@ -7786,7 +7789,7 @@
         <v>198</v>
       </c>
       <c r="G204" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="6:7" x14ac:dyDescent="0.2">
@@ -7794,7 +7797,7 @@
         <v>199</v>
       </c>
       <c r="G205" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="6:7" x14ac:dyDescent="0.2">
@@ -7802,7 +7805,7 @@
         <v>200</v>
       </c>
       <c r="G206" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="6:7" x14ac:dyDescent="0.2">
@@ -7810,7 +7813,7 @@
         <v>201</v>
       </c>
       <c r="G207" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="6:7" x14ac:dyDescent="0.2">
@@ -7818,7 +7821,7 @@
         <v>202</v>
       </c>
       <c r="G208" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="6:7" x14ac:dyDescent="0.2">
@@ -7826,7 +7829,7 @@
         <v>203</v>
       </c>
       <c r="G209" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="6:7" x14ac:dyDescent="0.2">
@@ -7834,7 +7837,7 @@
         <v>204</v>
       </c>
       <c r="G210" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="6:7" x14ac:dyDescent="0.2">
@@ -7842,7 +7845,7 @@
         <v>205</v>
       </c>
       <c r="G211" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="6:7" x14ac:dyDescent="0.2">
@@ -7850,7 +7853,7 @@
         <v>206</v>
       </c>
       <c r="G212" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="6:7" x14ac:dyDescent="0.2">
@@ -7858,7 +7861,7 @@
         <v>207</v>
       </c>
       <c r="G213" s="1">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="6:7" x14ac:dyDescent="0.2">
@@ -7866,7 +7869,7 @@
         <v>208</v>
       </c>
       <c r="G214" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215" spans="6:7" x14ac:dyDescent="0.2">
@@ -7874,7 +7877,7 @@
         <v>209</v>
       </c>
       <c r="G215" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="6:7" x14ac:dyDescent="0.2">
@@ -7882,7 +7885,7 @@
         <v>210</v>
       </c>
       <c r="G216" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="6:7" x14ac:dyDescent="0.2">
@@ -7890,7 +7893,7 @@
         <v>211</v>
       </c>
       <c r="G217" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="6:7" x14ac:dyDescent="0.2">
@@ -7898,7 +7901,7 @@
         <v>212</v>
       </c>
       <c r="G218" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="6:7" x14ac:dyDescent="0.2">
@@ -7906,7 +7909,7 @@
         <v>213</v>
       </c>
       <c r="G219" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="6:7" x14ac:dyDescent="0.2">
@@ -7914,7 +7917,7 @@
         <v>214</v>
       </c>
       <c r="G220" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="6:7" x14ac:dyDescent="0.2">
@@ -7922,7 +7925,7 @@
         <v>215</v>
       </c>
       <c r="G221" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="6:7" x14ac:dyDescent="0.2">
@@ -7930,7 +7933,7 @@
         <v>216</v>
       </c>
       <c r="G222" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="6:7" x14ac:dyDescent="0.2">
@@ -7938,7 +7941,7 @@
         <v>217</v>
       </c>
       <c r="G223" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="6:7" x14ac:dyDescent="0.2">
@@ -7946,7 +7949,7 @@
         <v>218</v>
       </c>
       <c r="G224" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="6:7" x14ac:dyDescent="0.2">
@@ -7954,7 +7957,7 @@
         <v>219</v>
       </c>
       <c r="G225" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="6:7" x14ac:dyDescent="0.2">
@@ -7962,7 +7965,7 @@
         <v>220</v>
       </c>
       <c r="G226" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227" spans="6:7" x14ac:dyDescent="0.2">
@@ -7970,7 +7973,7 @@
         <v>221</v>
       </c>
       <c r="G227" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="228" spans="6:7" x14ac:dyDescent="0.2">
@@ -7986,7 +7989,7 @@
         <v>223</v>
       </c>
       <c r="G229" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="6:7" x14ac:dyDescent="0.2">
@@ -7994,7 +7997,7 @@
         <v>224</v>
       </c>
       <c r="G230" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="6:7" x14ac:dyDescent="0.2">
@@ -8002,7 +8005,7 @@
         <v>225</v>
       </c>
       <c r="G231" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="232" spans="6:7" x14ac:dyDescent="0.2">
@@ -8010,7 +8013,7 @@
         <v>226</v>
       </c>
       <c r="G232" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233" spans="6:7" x14ac:dyDescent="0.2">
@@ -8018,7 +8021,7 @@
         <v>227</v>
       </c>
       <c r="G233" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234" spans="6:7" x14ac:dyDescent="0.2">
@@ -8026,7 +8029,7 @@
         <v>228</v>
       </c>
       <c r="G234" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="235" spans="6:7" x14ac:dyDescent="0.2">
@@ -8034,7 +8037,7 @@
         <v>229</v>
       </c>
       <c r="G235" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236" spans="6:7" x14ac:dyDescent="0.2">
@@ -8050,7 +8053,7 @@
         <v>231</v>
       </c>
       <c r="G237" s="1">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238" spans="6:7" x14ac:dyDescent="0.2">
@@ -8058,7 +8061,7 @@
         <v>232</v>
       </c>
       <c r="G238" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="239" spans="6:7" x14ac:dyDescent="0.2">
@@ -8066,7 +8069,7 @@
         <v>233</v>
       </c>
       <c r="G239" s="1">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="240" spans="6:7" x14ac:dyDescent="0.2">
@@ -8074,7 +8077,7 @@
         <v>234</v>
       </c>
       <c r="G240" s="1">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="241" spans="6:7" x14ac:dyDescent="0.2">
@@ -8082,7 +8085,7 @@
         <v>235</v>
       </c>
       <c r="G241" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" spans="6:7" x14ac:dyDescent="0.2">
@@ -8090,7 +8093,7 @@
         <v>236</v>
       </c>
       <c r="G242" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243" spans="6:7" x14ac:dyDescent="0.2">
@@ -8098,7 +8101,7 @@
         <v>237</v>
       </c>
       <c r="G243" s="1">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.2">
@@ -8106,7 +8109,7 @@
         <v>238</v>
       </c>
       <c r="G244" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="245" spans="6:7" x14ac:dyDescent="0.2">
@@ -8114,7 +8117,7 @@
         <v>239</v>
       </c>
       <c r="G245" s="1">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="246" spans="6:7" x14ac:dyDescent="0.2">
@@ -8122,7 +8125,7 @@
         <v>240</v>
       </c>
       <c r="G246" s="1">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="247" spans="6:7" x14ac:dyDescent="0.2">
@@ -8130,7 +8133,7 @@
         <v>241</v>
       </c>
       <c r="G247" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="248" spans="6:7" x14ac:dyDescent="0.2">
@@ -8138,7 +8141,7 @@
         <v>242</v>
       </c>
       <c r="G248" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="249" spans="6:7" x14ac:dyDescent="0.2">
@@ -8146,7 +8149,7 @@
         <v>243</v>
       </c>
       <c r="G249" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="6:7" x14ac:dyDescent="0.2">
@@ -8154,7 +8157,7 @@
         <v>244</v>
       </c>
       <c r="G250" s="1">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="6:7" x14ac:dyDescent="0.2">
@@ -8162,7 +8165,7 @@
         <v>245</v>
       </c>
       <c r="G251" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="252" spans="6:7" x14ac:dyDescent="0.2">
@@ -8170,7 +8173,7 @@
         <v>246</v>
       </c>
       <c r="G252" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253" spans="6:7" x14ac:dyDescent="0.2">
@@ -8178,7 +8181,7 @@
         <v>247</v>
       </c>
       <c r="G253" s="1">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" spans="6:7" x14ac:dyDescent="0.2">
@@ -8186,7 +8189,7 @@
         <v>248</v>
       </c>
       <c r="G254" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="255" spans="6:7" x14ac:dyDescent="0.2">
@@ -8194,7 +8197,7 @@
         <v>249</v>
       </c>
       <c r="G255" s="1">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256" spans="6:7" x14ac:dyDescent="0.2">
@@ -8202,7 +8205,7 @@
         <v>250</v>
       </c>
       <c r="G256" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="6:7" x14ac:dyDescent="0.2">
@@ -8210,7 +8213,7 @@
         <v>251</v>
       </c>
       <c r="G257" s="1">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="258" spans="6:7" x14ac:dyDescent="0.2">
@@ -8218,7 +8221,7 @@
         <v>252</v>
       </c>
       <c r="G258" s="1">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="259" spans="6:7" x14ac:dyDescent="0.2">
@@ -8226,7 +8229,7 @@
         <v>253</v>
       </c>
       <c r="G259" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260" spans="6:7" x14ac:dyDescent="0.2">
@@ -8242,7 +8245,7 @@
         <v>255</v>
       </c>
       <c r="G261" s="1">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="262" spans="6:7" x14ac:dyDescent="0.2">
@@ -8250,7 +8253,7 @@
         <v>256</v>
       </c>
       <c r="G262" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="263" spans="6:7" x14ac:dyDescent="0.2">
@@ -8258,7 +8261,7 @@
         <v>257</v>
       </c>
       <c r="G263" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="264" spans="6:7" x14ac:dyDescent="0.2">
@@ -8266,7 +8269,7 @@
         <v>258</v>
       </c>
       <c r="G264" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="265" spans="6:7" x14ac:dyDescent="0.2">
@@ -8274,7 +8277,7 @@
         <v>259</v>
       </c>
       <c r="G265" s="1">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="266" spans="6:7" x14ac:dyDescent="0.2">
@@ -8282,7 +8285,7 @@
         <v>260</v>
       </c>
       <c r="G266" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="267" spans="6:7" x14ac:dyDescent="0.2">
@@ -8290,7 +8293,7 @@
         <v>261</v>
       </c>
       <c r="G267" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="268" spans="6:7" x14ac:dyDescent="0.2">
@@ -8298,7 +8301,7 @@
         <v>262</v>
       </c>
       <c r="G268" s="1">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="269" spans="6:7" x14ac:dyDescent="0.2">
@@ -8306,7 +8309,7 @@
         <v>263</v>
       </c>
       <c r="G269" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="270" spans="6:7" x14ac:dyDescent="0.2">
@@ -8314,7 +8317,7 @@
         <v>264</v>
       </c>
       <c r="G270" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="271" spans="6:7" x14ac:dyDescent="0.2">
@@ -8322,7 +8325,7 @@
         <v>265</v>
       </c>
       <c r="G271" s="1">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" spans="6:7" x14ac:dyDescent="0.2">
@@ -8330,7 +8333,7 @@
         <v>266</v>
       </c>
       <c r="G272" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="273" spans="6:7" x14ac:dyDescent="0.2">
@@ -8338,7 +8341,7 @@
         <v>267</v>
       </c>
       <c r="G273" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="274" spans="6:7" x14ac:dyDescent="0.2">
@@ -8346,7 +8349,7 @@
         <v>268</v>
       </c>
       <c r="G274" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="275" spans="6:7" x14ac:dyDescent="0.2">
@@ -8362,7 +8365,7 @@
         <v>270</v>
       </c>
       <c r="G276" s="1">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="277" spans="6:7" x14ac:dyDescent="0.2">
@@ -8370,7 +8373,7 @@
         <v>271</v>
       </c>
       <c r="G277" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="278" spans="6:7" x14ac:dyDescent="0.2">
@@ -8378,7 +8381,7 @@
         <v>272</v>
       </c>
       <c r="G278" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="279" spans="6:7" x14ac:dyDescent="0.2">
@@ -8386,7 +8389,7 @@
         <v>273</v>
       </c>
       <c r="G279" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280" spans="6:7" x14ac:dyDescent="0.2">
@@ -8394,7 +8397,7 @@
         <v>274</v>
       </c>
       <c r="G280" s="1">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="6:7" x14ac:dyDescent="0.2">
@@ -8402,7 +8405,7 @@
         <v>275</v>
       </c>
       <c r="G281" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="282" spans="6:7" x14ac:dyDescent="0.2">
@@ -8410,7 +8413,7 @@
         <v>276</v>
       </c>
       <c r="G282" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="283" spans="6:7" x14ac:dyDescent="0.2">
@@ -8418,7 +8421,7 @@
         <v>277</v>
       </c>
       <c r="G283" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="284" spans="6:7" x14ac:dyDescent="0.2">
@@ -8426,7 +8429,7 @@
         <v>278</v>
       </c>
       <c r="G284" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="285" spans="6:7" x14ac:dyDescent="0.2">
@@ -8434,7 +8437,7 @@
         <v>279</v>
       </c>
       <c r="G285" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="6:7" x14ac:dyDescent="0.2">
@@ -8442,7 +8445,7 @@
         <v>280</v>
       </c>
       <c r="G286" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="287" spans="6:7" x14ac:dyDescent="0.2">
@@ -8450,7 +8453,7 @@
         <v>281</v>
       </c>
       <c r="G287" s="1">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="288" spans="6:7" x14ac:dyDescent="0.2">
@@ -8458,7 +8461,7 @@
         <v>282</v>
       </c>
       <c r="G288" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="289" spans="6:7" x14ac:dyDescent="0.2">
@@ -8466,7 +8469,7 @@
         <v>283</v>
       </c>
       <c r="G289" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="290" spans="6:7" x14ac:dyDescent="0.2">
@@ -8474,7 +8477,7 @@
         <v>284</v>
       </c>
       <c r="G290" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="291" spans="6:7" x14ac:dyDescent="0.2">
@@ -8490,7 +8493,7 @@
         <v>286</v>
       </c>
       <c r="G292" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="293" spans="6:7" x14ac:dyDescent="0.2">
@@ -8498,7 +8501,7 @@
         <v>287</v>
       </c>
       <c r="G293" s="1">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="294" spans="6:7" x14ac:dyDescent="0.2">
@@ -8506,7 +8509,7 @@
         <v>288</v>
       </c>
       <c r="G294" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="295" spans="6:7" x14ac:dyDescent="0.2">
@@ -8514,7 +8517,7 @@
         <v>289</v>
       </c>
       <c r="G295" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="296" spans="6:7" x14ac:dyDescent="0.2">
@@ -8522,7 +8525,7 @@
         <v>290</v>
       </c>
       <c r="G296" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="297" spans="6:7" x14ac:dyDescent="0.2">
@@ -8530,7 +8533,7 @@
         <v>291</v>
       </c>
       <c r="G297" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="298" spans="6:7" x14ac:dyDescent="0.2">
@@ -8538,7 +8541,7 @@
         <v>292</v>
       </c>
       <c r="G298" s="1">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="299" spans="6:7" x14ac:dyDescent="0.2">
@@ -8546,7 +8549,7 @@
         <v>293</v>
       </c>
       <c r="G299" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300" spans="6:7" x14ac:dyDescent="0.2">
@@ -8554,7 +8557,7 @@
         <v>294</v>
       </c>
       <c r="G300" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="301" spans="6:7" x14ac:dyDescent="0.2">
@@ -8562,7 +8565,7 @@
         <v>295</v>
       </c>
       <c r="G301" s="1">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302" spans="6:7" x14ac:dyDescent="0.2">
@@ -8570,7 +8573,7 @@
         <v>296</v>
       </c>
       <c r="G302" s="1">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303" spans="6:7" x14ac:dyDescent="0.2">
@@ -8578,7 +8581,7 @@
         <v>297</v>
       </c>
       <c r="G303" s="1">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="304" spans="6:7" x14ac:dyDescent="0.2">
@@ -8586,7 +8589,7 @@
         <v>298</v>
       </c>
       <c r="G304" s="1">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="305" spans="6:7" x14ac:dyDescent="0.2">
@@ -8594,7 +8597,7 @@
         <v>299</v>
       </c>
       <c r="G305" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="306" spans="6:7" x14ac:dyDescent="0.2">
@@ -8602,7 +8605,7 @@
         <v>300</v>
       </c>
       <c r="G306" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="307" spans="6:7" x14ac:dyDescent="0.2">
@@ -8610,7 +8613,7 @@
         <v>301</v>
       </c>
       <c r="G307" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="308" spans="6:7" x14ac:dyDescent="0.2">
@@ -8618,7 +8621,7 @@
         <v>302</v>
       </c>
       <c r="G308" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="309" spans="6:7" x14ac:dyDescent="0.2">
@@ -8626,7 +8629,7 @@
         <v>303</v>
       </c>
       <c r="G309" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="310" spans="6:7" x14ac:dyDescent="0.2">
@@ -8634,7 +8637,7 @@
         <v>304</v>
       </c>
       <c r="G310" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="311" spans="6:7" x14ac:dyDescent="0.2">
@@ -8642,7 +8645,7 @@
         <v>305</v>
       </c>
       <c r="G311" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="312" spans="6:7" x14ac:dyDescent="0.2">
@@ -8650,7 +8653,7 @@
         <v>306</v>
       </c>
       <c r="G312" s="1">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="313" spans="6:7" x14ac:dyDescent="0.2">
@@ -8658,7 +8661,7 @@
         <v>307</v>
       </c>
       <c r="G313" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="6:7" x14ac:dyDescent="0.2">
@@ -8666,7 +8669,7 @@
         <v>308</v>
       </c>
       <c r="G314" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="315" spans="6:7" x14ac:dyDescent="0.2">
@@ -8674,7 +8677,7 @@
         <v>309</v>
       </c>
       <c r="G315" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="316" spans="6:7" x14ac:dyDescent="0.2">
@@ -8682,7 +8685,7 @@
         <v>310</v>
       </c>
       <c r="G316" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="317" spans="6:7" x14ac:dyDescent="0.2">
@@ -8690,7 +8693,7 @@
         <v>311</v>
       </c>
       <c r="G317" s="1">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="318" spans="6:7" x14ac:dyDescent="0.2">
@@ -8698,7 +8701,7 @@
         <v>312</v>
       </c>
       <c r="G318" s="1">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="319" spans="6:7" x14ac:dyDescent="0.2">
@@ -8714,7 +8717,7 @@
         <v>314</v>
       </c>
       <c r="G320" s="1">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="321" spans="6:7" x14ac:dyDescent="0.2">
@@ -8722,7 +8725,7 @@
         <v>315</v>
       </c>
       <c r="G321" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="322" spans="6:7" x14ac:dyDescent="0.2">
@@ -8730,7 +8733,7 @@
         <v>316</v>
       </c>
       <c r="G322" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="323" spans="6:7" x14ac:dyDescent="0.2">
@@ -8738,7 +8741,7 @@
         <v>317</v>
       </c>
       <c r="G323" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="6:7" x14ac:dyDescent="0.2">
@@ -8746,7 +8749,7 @@
         <v>318</v>
       </c>
       <c r="G324" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="325" spans="6:7" x14ac:dyDescent="0.2">
@@ -8754,7 +8757,7 @@
         <v>319</v>
       </c>
       <c r="G325" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="6:7" x14ac:dyDescent="0.2">
@@ -8762,7 +8765,7 @@
         <v>320</v>
       </c>
       <c r="G326" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="327" spans="6:7" x14ac:dyDescent="0.2">
@@ -8770,7 +8773,7 @@
         <v>321</v>
       </c>
       <c r="G327" s="1">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="328" spans="6:7" x14ac:dyDescent="0.2">
@@ -8778,7 +8781,7 @@
         <v>322</v>
       </c>
       <c r="G328" s="1">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="329" spans="6:7" x14ac:dyDescent="0.2">
@@ -8786,7 +8789,7 @@
         <v>323</v>
       </c>
       <c r="G329" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="330" spans="6:7" x14ac:dyDescent="0.2">
@@ -8794,7 +8797,7 @@
         <v>324</v>
       </c>
       <c r="G330" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="331" spans="6:7" x14ac:dyDescent="0.2">
@@ -8802,7 +8805,7 @@
         <v>325</v>
       </c>
       <c r="G331" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="332" spans="6:7" x14ac:dyDescent="0.2">
@@ -8810,7 +8813,7 @@
         <v>326</v>
       </c>
       <c r="G332" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333" spans="6:7" x14ac:dyDescent="0.2">
@@ -8818,7 +8821,7 @@
         <v>327</v>
       </c>
       <c r="G333" s="1">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="334" spans="6:7" x14ac:dyDescent="0.2">
@@ -8826,7 +8829,7 @@
         <v>328</v>
       </c>
       <c r="G334" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="335" spans="6:7" x14ac:dyDescent="0.2">
@@ -8834,7 +8837,7 @@
         <v>329</v>
       </c>
       <c r="G335" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="336" spans="6:7" x14ac:dyDescent="0.2">
@@ -8842,7 +8845,7 @@
         <v>330</v>
       </c>
       <c r="G336" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="337" spans="6:7" x14ac:dyDescent="0.2">
@@ -8850,7 +8853,7 @@
         <v>331</v>
       </c>
       <c r="G337" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="338" spans="6:7" x14ac:dyDescent="0.2">
@@ -8858,7 +8861,7 @@
         <v>332</v>
       </c>
       <c r="G338" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339" spans="6:7" x14ac:dyDescent="0.2">
@@ -8866,7 +8869,7 @@
         <v>333</v>
       </c>
       <c r="G339" s="1">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="340" spans="6:7" x14ac:dyDescent="0.2">
@@ -8890,7 +8893,7 @@
         <v>336</v>
       </c>
       <c r="G342" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="343" spans="6:7" x14ac:dyDescent="0.2">
@@ -8898,7 +8901,7 @@
         <v>337</v>
       </c>
       <c r="G343" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="344" spans="6:7" x14ac:dyDescent="0.2">
@@ -8906,7 +8909,7 @@
         <v>338</v>
       </c>
       <c r="G344" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="345" spans="6:7" x14ac:dyDescent="0.2">
@@ -8914,7 +8917,7 @@
         <v>339</v>
       </c>
       <c r="G345" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="346" spans="6:7" x14ac:dyDescent="0.2">
@@ -8922,7 +8925,7 @@
         <v>340</v>
       </c>
       <c r="G346" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="347" spans="6:7" x14ac:dyDescent="0.2">
@@ -8930,7 +8933,7 @@
         <v>341</v>
       </c>
       <c r="G347" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="348" spans="6:7" x14ac:dyDescent="0.2">
@@ -8938,7 +8941,7 @@
         <v>342</v>
       </c>
       <c r="G348" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="349" spans="6:7" x14ac:dyDescent="0.2">
@@ -8946,7 +8949,7 @@
         <v>343</v>
       </c>
       <c r="G349" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="350" spans="6:7" x14ac:dyDescent="0.2">
@@ -8954,7 +8957,7 @@
         <v>344</v>
       </c>
       <c r="G350" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="351" spans="6:7" x14ac:dyDescent="0.2">
@@ -8962,7 +8965,7 @@
         <v>345</v>
       </c>
       <c r="G351" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="352" spans="6:7" x14ac:dyDescent="0.2">
@@ -8970,7 +8973,7 @@
         <v>346</v>
       </c>
       <c r="G352" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="353" spans="6:7" x14ac:dyDescent="0.2">
@@ -8986,7 +8989,7 @@
         <v>348</v>
       </c>
       <c r="G354" s="1">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="355" spans="6:7" x14ac:dyDescent="0.2">
@@ -8994,7 +8997,7 @@
         <v>349</v>
       </c>
       <c r="G355" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="356" spans="6:7" x14ac:dyDescent="0.2">
@@ -9002,7 +9005,7 @@
         <v>350</v>
       </c>
       <c r="G356" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="357" spans="6:7" x14ac:dyDescent="0.2">
@@ -9010,7 +9013,7 @@
         <v>351</v>
       </c>
       <c r="G357" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="358" spans="6:7" x14ac:dyDescent="0.2">
@@ -9018,7 +9021,7 @@
         <v>352</v>
       </c>
       <c r="G358" s="1">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="359" spans="6:7" x14ac:dyDescent="0.2">
@@ -9026,7 +9029,7 @@
         <v>353</v>
       </c>
       <c r="G359" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="360" spans="6:7" x14ac:dyDescent="0.2">
@@ -9042,7 +9045,7 @@
         <v>355</v>
       </c>
       <c r="G361" s="1">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="362" spans="6:7" x14ac:dyDescent="0.2">
@@ -9050,7 +9053,7 @@
         <v>356</v>
       </c>
       <c r="G362" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="363" spans="6:7" x14ac:dyDescent="0.2">
@@ -9058,7 +9061,7 @@
         <v>357</v>
       </c>
       <c r="G363" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="364" spans="6:7" x14ac:dyDescent="0.2">
@@ -9066,7 +9069,7 @@
         <v>358</v>
       </c>
       <c r="G364" s="1">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="365" spans="6:7" x14ac:dyDescent="0.2">
@@ -9074,7 +9077,7 @@
         <v>359</v>
       </c>
       <c r="G365" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="366" spans="6:7" x14ac:dyDescent="0.2">
@@ -9090,7 +9093,7 @@
         <v>361</v>
       </c>
       <c r="G367" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="368" spans="6:7" x14ac:dyDescent="0.2">
@@ -9098,7 +9101,7 @@
         <v>362</v>
       </c>
       <c r="G368" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="369" spans="6:7" x14ac:dyDescent="0.2">
@@ -9106,7 +9109,7 @@
         <v>363</v>
       </c>
       <c r="G369" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="370" spans="6:7" x14ac:dyDescent="0.2">
@@ -9114,7 +9117,7 @@
         <v>364</v>
       </c>
       <c r="G370" s="1">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="371" spans="6:7" x14ac:dyDescent="0.2">
@@ -9122,7 +9125,7 @@
         <v>365</v>
       </c>
       <c r="G371" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="372" spans="6:7" x14ac:dyDescent="0.2">
@@ -9138,7 +9141,7 @@
         <v>367</v>
       </c>
       <c r="G373" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="374" spans="6:7" x14ac:dyDescent="0.2">
@@ -9146,7 +9149,7 @@
         <v>368</v>
       </c>
       <c r="G374" s="1">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="375" spans="6:7" x14ac:dyDescent="0.2">
@@ -9154,7 +9157,7 @@
         <v>369</v>
       </c>
       <c r="G375" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="376" spans="6:7" x14ac:dyDescent="0.2">
@@ -9162,7 +9165,7 @@
         <v>370</v>
       </c>
       <c r="G376" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="377" spans="6:7" x14ac:dyDescent="0.2">
@@ -9186,7 +9189,7 @@
         <v>373</v>
       </c>
       <c r="G379" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="380" spans="6:7" x14ac:dyDescent="0.2">
@@ -9194,7 +9197,7 @@
         <v>374</v>
       </c>
       <c r="G380" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="381" spans="6:7" x14ac:dyDescent="0.2">
@@ -9202,7 +9205,7 @@
         <v>375</v>
       </c>
       <c r="G381" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="382" spans="6:7" x14ac:dyDescent="0.2">
@@ -9210,7 +9213,7 @@
         <v>376</v>
       </c>
       <c r="G382" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="383" spans="6:7" x14ac:dyDescent="0.2">
@@ -9218,7 +9221,7 @@
         <v>377</v>
       </c>
       <c r="G383" s="1">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="384" spans="6:7" x14ac:dyDescent="0.2">
@@ -9226,7 +9229,7 @@
         <v>378</v>
       </c>
       <c r="G384" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="385" spans="6:7" x14ac:dyDescent="0.2">
@@ -9234,7 +9237,7 @@
         <v>379</v>
       </c>
       <c r="G385" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="386" spans="6:7" x14ac:dyDescent="0.2">
@@ -9242,7 +9245,7 @@
         <v>380</v>
       </c>
       <c r="G386" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="387" spans="6:7" x14ac:dyDescent="0.2">
@@ -9250,7 +9253,7 @@
         <v>381</v>
       </c>
       <c r="G387" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="388" spans="6:7" x14ac:dyDescent="0.2">
@@ -9266,7 +9269,7 @@
         <v>383</v>
       </c>
       <c r="G389" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="390" spans="6:7" x14ac:dyDescent="0.2">
@@ -9274,7 +9277,7 @@
         <v>384</v>
       </c>
       <c r="G390" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="391" spans="6:7" x14ac:dyDescent="0.2">
@@ -9282,7 +9285,7 @@
         <v>385</v>
       </c>
       <c r="G391" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="392" spans="6:7" x14ac:dyDescent="0.2">
@@ -9290,7 +9293,7 @@
         <v>386</v>
       </c>
       <c r="G392" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="393" spans="6:7" x14ac:dyDescent="0.2">
@@ -9306,7 +9309,7 @@
         <v>388</v>
       </c>
       <c r="G394" s="1">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="395" spans="6:7" x14ac:dyDescent="0.2">
@@ -9322,7 +9325,7 @@
         <v>390</v>
       </c>
       <c r="G396" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="397" spans="6:7" x14ac:dyDescent="0.2">
@@ -9338,7 +9341,7 @@
         <v>392</v>
       </c>
       <c r="G398" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="399" spans="6:7" x14ac:dyDescent="0.2">
@@ -9346,7 +9349,7 @@
         <v>393</v>
       </c>
       <c r="G399" s="1">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="400" spans="6:7" x14ac:dyDescent="0.2">
@@ -9362,7 +9365,7 @@
         <v>395</v>
       </c>
       <c r="G401" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="402" spans="6:7" x14ac:dyDescent="0.2">
@@ -9370,7 +9373,7 @@
         <v>396</v>
       </c>
       <c r="G402" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="403" spans="6:7" x14ac:dyDescent="0.2">
@@ -9378,7 +9381,7 @@
         <v>397</v>
       </c>
       <c r="G403" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="404" spans="6:7" x14ac:dyDescent="0.2">
@@ -9386,7 +9389,7 @@
         <v>398</v>
       </c>
       <c r="G404" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="405" spans="6:7" x14ac:dyDescent="0.2">
@@ -9394,7 +9397,7 @@
         <v>399</v>
       </c>
       <c r="G405" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="406" spans="6:7" x14ac:dyDescent="0.2">
@@ -9402,7 +9405,7 @@
         <v>400</v>
       </c>
       <c r="G406" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/lab7analysis.xlsx
+++ b/lab7analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1418fc52008665ae/Documents/2XC3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D691B-5198-8F4A-ADE1-DE39F92760F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{089D691B-5198-8F4A-ADE1-DE39F92760F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5238EB73-E35A-4D6A-AD86-686D5BD596EC}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{685E1627-B16A-4E45-983F-3B881B2C1CDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{685E1627-B16A-4E45-983F-3B881B2C1CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1262,10 +1262,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5186,16 +5184,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>631566</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>159870</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>705970</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>452271</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>642770</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5222,16 +5220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>698498</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>709703</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>141816</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>656166</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>148166</xdr:rowOff>
+      <xdr:rowOff>13696</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5260,11 +5258,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="isconnected2" connectionId="2" xr16:uid="{7FD87000-84C8-BB48-8756-8AAC24B4B274}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="hascycle" connectionId="1" xr16:uid="{C678C41A-03A0-5540-9EC6-1629C1E32FB5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="hascycle" connectionId="1" xr16:uid="{C678C41A-03A0-5540-9EC6-1629C1E32FB5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="isconnected2" connectionId="2" xr16:uid="{7FD87000-84C8-BB48-8756-8AAC24B4B274}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5566,18 +5564,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1AE73-9468-6448-A459-218E3F5A9A0C}">
   <dimension ref="C5:G406"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="68" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5591,7 +5589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>0</v>
       </c>
@@ -5605,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -5619,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -5633,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -5647,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -5661,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -5675,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -5689,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -5703,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -5717,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -5731,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -5745,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -5759,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -5773,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -5787,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -5801,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -5815,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -5829,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>17</v>
       </c>
@@ -5843,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -5857,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>19</v>
       </c>
@@ -5871,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -5885,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>21</v>
       </c>
@@ -5899,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -5913,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -5927,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -5941,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -5955,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -5969,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -5983,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -5997,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -6011,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -6025,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>31</v>
       </c>
@@ -6039,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>32</v>
       </c>
@@ -6053,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>33</v>
       </c>
@@ -6067,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>34</v>
       </c>
@@ -6081,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>35</v>
       </c>
@@ -6095,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>36</v>
       </c>
@@ -6109,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>37</v>
       </c>
@@ -6123,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>38</v>
       </c>
@@ -6137,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>39</v>
       </c>
@@ -6151,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>40</v>
       </c>
@@ -6165,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>41</v>
       </c>
@@ -6179,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>42</v>
       </c>
@@ -6193,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>43</v>
       </c>
@@ -6207,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>44</v>
       </c>
@@ -6221,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>45</v>
       </c>
@@ -6235,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>46</v>
       </c>
@@ -6249,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>47</v>
       </c>
@@ -6263,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>48</v>
       </c>
@@ -6277,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>49</v>
       </c>
@@ -6291,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>50</v>
       </c>
@@ -6305,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>51</v>
       </c>
@@ -6319,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>52</v>
       </c>
@@ -6333,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>53</v>
       </c>
@@ -6347,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>54</v>
       </c>
@@ -6361,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>55</v>
       </c>
@@ -6375,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>56</v>
       </c>
@@ -6389,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>57</v>
       </c>
@@ -6403,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>58</v>
       </c>
@@ -6417,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>59</v>
       </c>
@@ -6431,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>60</v>
       </c>
@@ -6445,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>61</v>
       </c>
@@ -6459,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>62</v>
       </c>
@@ -6473,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>63</v>
       </c>
@@ -6487,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>64</v>
       </c>
@@ -6501,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>65</v>
       </c>
@@ -6515,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>66</v>
       </c>
@@ -6529,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>67</v>
       </c>
@@ -6543,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>68</v>
       </c>
@@ -6557,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>69</v>
       </c>
@@ -6571,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>70</v>
       </c>
@@ -6585,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>71</v>
       </c>
@@ -6599,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" s="1">
         <v>72</v>
       </c>
@@ -6613,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>73</v>
       </c>
@@ -6627,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>74</v>
       </c>
@@ -6641,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>75</v>
       </c>
@@ -6655,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>76</v>
       </c>
@@ -6669,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>77</v>
       </c>
@@ -6683,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>78</v>
       </c>
@@ -6697,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>79</v>
       </c>
@@ -6711,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>80</v>
       </c>
@@ -6725,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>81</v>
       </c>
@@ -6739,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>82</v>
       </c>
@@ -6753,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>83</v>
       </c>
@@ -6767,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>84</v>
       </c>
@@ -6781,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>85</v>
       </c>
@@ -6795,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>86</v>
       </c>
@@ -6809,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>87</v>
       </c>
@@ -6823,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>88</v>
       </c>
@@ -6837,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>89</v>
       </c>
@@ -6851,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>90</v>
       </c>
@@ -6865,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>91</v>
       </c>
@@ -6879,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>92</v>
       </c>
@@ -6893,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
         <v>93</v>
       </c>
@@ -6907,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>94</v>
       </c>
@@ -6921,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
         <v>95</v>
       </c>
@@ -6935,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>96</v>
       </c>
@@ -6949,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
         <v>97</v>
       </c>
@@ -6963,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>98</v>
       </c>
@@ -6977,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
         <v>99</v>
       </c>
@@ -6991,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>100</v>
       </c>
@@ -7005,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F107" s="1">
         <v>101</v>
       </c>
@@ -7013,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F108" s="1">
         <v>102</v>
       </c>
@@ -7021,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F109" s="1">
         <v>103</v>
       </c>
@@ -7029,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F110" s="1">
         <v>104</v>
       </c>
@@ -7037,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F111" s="1">
         <v>105</v>
       </c>
@@ -7045,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F112" s="1">
         <v>106</v>
       </c>
@@ -7053,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F113" s="1">
         <v>107</v>
       </c>
@@ -7061,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114" s="1">
         <v>108</v>
       </c>
@@ -7069,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F115" s="1">
         <v>109</v>
       </c>
@@ -7077,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F116" s="1">
         <v>110</v>
       </c>
@@ -7085,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F117" s="1">
         <v>111</v>
       </c>
@@ -7093,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F118" s="1">
         <v>112</v>
       </c>
@@ -7101,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F119" s="1">
         <v>113</v>
       </c>
@@ -7109,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F120" s="1">
         <v>114</v>
       </c>
@@ -7117,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F121" s="1">
         <v>115</v>
       </c>
@@ -7125,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F122" s="1">
         <v>116</v>
       </c>
@@ -7133,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F123" s="1">
         <v>117</v>
       </c>
@@ -7141,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F124" s="1">
         <v>118</v>
       </c>
@@ -7149,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F125" s="1">
         <v>119</v>
       </c>
@@ -7157,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F126" s="1">
         <v>120</v>
       </c>
@@ -7165,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F127" s="1">
         <v>121</v>
       </c>
@@ -7173,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F128" s="1">
         <v>122</v>
       </c>
@@ -7181,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F129" s="1">
         <v>123</v>
       </c>
@@ -7189,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F130" s="1">
         <v>124</v>
       </c>
@@ -7197,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F131" s="1">
         <v>125</v>
       </c>
@@ -7205,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F132" s="1">
         <v>126</v>
       </c>
@@ -7213,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F133" s="1">
         <v>127</v>
       </c>
@@ -7221,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F134" s="1">
         <v>128</v>
       </c>
@@ -7229,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F135" s="1">
         <v>129</v>
       </c>
@@ -7237,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F136" s="1">
         <v>130</v>
       </c>
@@ -7245,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F137" s="1">
         <v>131</v>
       </c>
@@ -7253,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F138" s="1">
         <v>132</v>
       </c>
@@ -7261,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F139" s="1">
         <v>133</v>
       </c>
@@ -7269,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F140" s="1">
         <v>134</v>
       </c>
@@ -7277,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F141" s="1">
         <v>135</v>
       </c>
@@ -7285,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F142" s="1">
         <v>136</v>
       </c>
@@ -7293,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F143" s="1">
         <v>137</v>
       </c>
@@ -7301,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F144" s="1">
         <v>138</v>
       </c>
@@ -7309,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F145" s="1">
         <v>139</v>
       </c>
@@ -7317,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F146" s="1">
         <v>140</v>
       </c>
@@ -7325,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F147" s="1">
         <v>141</v>
       </c>
@@ -7333,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F148" s="1">
         <v>142</v>
       </c>
@@ -7341,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F149" s="1">
         <v>143</v>
       </c>
@@ -7349,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F150" s="1">
         <v>144</v>
       </c>
@@ -7357,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F151" s="1">
         <v>145</v>
       </c>
@@ -7365,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F152" s="1">
         <v>146</v>
       </c>
@@ -7373,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F153" s="1">
         <v>147</v>
       </c>
@@ -7381,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F154" s="1">
         <v>148</v>
       </c>
@@ -7389,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F155" s="1">
         <v>149</v>
       </c>
@@ -7397,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F156" s="1">
         <v>150</v>
       </c>
@@ -7405,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F157" s="1">
         <v>151</v>
       </c>
@@ -7413,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F158" s="1">
         <v>152</v>
       </c>
@@ -7421,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F159" s="1">
         <v>153</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F160" s="1">
         <v>154</v>
       </c>
@@ -7437,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F161" s="1">
         <v>155</v>
       </c>
@@ -7445,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F162" s="1">
         <v>156</v>
       </c>
@@ -7453,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F163" s="1">
         <v>157</v>
       </c>
@@ -7461,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F164" s="1">
         <v>158</v>
       </c>
@@ -7469,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F165" s="1">
         <v>159</v>
       </c>
@@ -7477,7 +7475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F166" s="1">
         <v>160</v>
       </c>
@@ -7485,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F167" s="1">
         <v>161</v>
       </c>
@@ -7493,7 +7491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F168" s="1">
         <v>162</v>
       </c>
@@ -7501,7 +7499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F169" s="1">
         <v>163</v>
       </c>
@@ -7509,7 +7507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F170" s="1">
         <v>164</v>
       </c>
@@ -7517,7 +7515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F171" s="1">
         <v>165</v>
       </c>
@@ -7525,7 +7523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F172" s="1">
         <v>166</v>
       </c>
@@ -7533,7 +7531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F173" s="1">
         <v>167</v>
       </c>
@@ -7541,7 +7539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F174" s="1">
         <v>168</v>
       </c>
@@ -7549,7 +7547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F175" s="1">
         <v>169</v>
       </c>
@@ -7557,7 +7555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F176" s="1">
         <v>170</v>
       </c>
@@ -7565,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F177" s="1">
         <v>171</v>
       </c>
@@ -7573,7 +7571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F178" s="1">
         <v>172</v>
       </c>
@@ -7581,7 +7579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F179" s="1">
         <v>173</v>
       </c>
@@ -7589,7 +7587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F180" s="1">
         <v>174</v>
       </c>
@@ -7597,7 +7595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F181" s="1">
         <v>175</v>
       </c>
@@ -7605,7 +7603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F182" s="1">
         <v>176</v>
       </c>
@@ -7613,7 +7611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F183" s="1">
         <v>177</v>
       </c>
@@ -7621,7 +7619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F184" s="1">
         <v>178</v>
       </c>
@@ -7629,7 +7627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F185" s="1">
         <v>179</v>
       </c>
@@ -7637,7 +7635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F186" s="1">
         <v>180</v>
       </c>
@@ -7645,7 +7643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F187" s="1">
         <v>181</v>
       </c>
@@ -7653,7 +7651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F188" s="1">
         <v>182</v>
       </c>
@@ -7661,7 +7659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F189" s="1">
         <v>183</v>
       </c>
@@ -7669,7 +7667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F190" s="1">
         <v>184</v>
       </c>
@@ -7677,7 +7675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F191" s="1">
         <v>185</v>
       </c>
@@ -7685,7 +7683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F192" s="1">
         <v>186</v>
       </c>
@@ -7693,7 +7691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F193" s="1">
         <v>187</v>
       </c>
@@ -7701,7 +7699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F194" s="1">
         <v>188</v>
       </c>
@@ -7709,7 +7707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F195" s="1">
         <v>189</v>
       </c>
@@ -7717,7 +7715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F196" s="1">
         <v>190</v>
       </c>
@@ -7725,7 +7723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F197" s="1">
         <v>191</v>
       </c>
@@ -7733,7 +7731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F198" s="1">
         <v>192</v>
       </c>
@@ -7741,7 +7739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F199" s="1">
         <v>193</v>
       </c>
@@ -7749,7 +7747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F200" s="1">
         <v>194</v>
       </c>
@@ -7757,7 +7755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F201" s="1">
         <v>195</v>
       </c>
@@ -7765,7 +7763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F202" s="1">
         <v>196</v>
       </c>
@@ -7773,7 +7771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F203" s="1">
         <v>197</v>
       </c>
@@ -7781,7 +7779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F204" s="1">
         <v>198</v>
       </c>
@@ -7789,7 +7787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F205" s="1">
         <v>199</v>
       </c>
@@ -7797,7 +7795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F206" s="1">
         <v>200</v>
       </c>
@@ -7805,7 +7803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F207" s="1">
         <v>201</v>
       </c>
@@ -7813,7 +7811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F208" s="1">
         <v>202</v>
       </c>
@@ -7821,7 +7819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F209" s="1">
         <v>203</v>
       </c>
@@ -7829,7 +7827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F210" s="1">
         <v>204</v>
       </c>
@@ -7837,7 +7835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F211" s="1">
         <v>205</v>
       </c>
@@ -7845,7 +7843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F212" s="1">
         <v>206</v>
       </c>
@@ -7853,7 +7851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F213" s="1">
         <v>207</v>
       </c>
@@ -7861,7 +7859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F214" s="1">
         <v>208</v>
       </c>
@@ -7869,7 +7867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F215" s="1">
         <v>209</v>
       </c>
@@ -7877,7 +7875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F216" s="1">
         <v>210</v>
       </c>
@@ -7885,7 +7883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F217" s="1">
         <v>211</v>
       </c>
@@ -7893,7 +7891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F218" s="1">
         <v>212</v>
       </c>
@@ -7901,7 +7899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F219" s="1">
         <v>213</v>
       </c>
@@ -7909,7 +7907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F220" s="1">
         <v>214</v>
       </c>
@@ -7917,7 +7915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F221" s="1">
         <v>215</v>
       </c>
@@ -7925,7 +7923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F222" s="1">
         <v>216</v>
       </c>
@@ -7933,7 +7931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F223" s="1">
         <v>217</v>
       </c>
@@ -7941,7 +7939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F224" s="1">
         <v>218</v>
       </c>
@@ -7949,7 +7947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F225" s="1">
         <v>219</v>
       </c>
@@ -7957,7 +7955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F226" s="1">
         <v>220</v>
       </c>
@@ -7965,7 +7963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F227" s="1">
         <v>221</v>
       </c>
@@ -7973,7 +7971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F228" s="1">
         <v>222</v>
       </c>
@@ -7981,7 +7979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F229" s="1">
         <v>223</v>
       </c>
@@ -7989,7 +7987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F230" s="1">
         <v>224</v>
       </c>
@@ -7997,7 +7995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F231" s="1">
         <v>225</v>
       </c>
@@ -8005,7 +8003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F232" s="1">
         <v>226</v>
       </c>
@@ -8013,7 +8011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F233" s="1">
         <v>227</v>
       </c>
@@ -8021,7 +8019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F234" s="1">
         <v>228</v>
       </c>
@@ -8029,7 +8027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F235" s="1">
         <v>229</v>
       </c>
@@ -8037,7 +8035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="236" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F236" s="1">
         <v>230</v>
       </c>
@@ -8045,7 +8043,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="237" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F237" s="1">
         <v>231</v>
       </c>
@@ -8053,7 +8051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="238" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F238" s="1">
         <v>232</v>
       </c>
@@ -8061,7 +8059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="239" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F239" s="1">
         <v>233</v>
       </c>
@@ -8069,7 +8067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F240" s="1">
         <v>234</v>
       </c>
@@ -8077,7 +8075,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="241" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F241" s="1">
         <v>235</v>
       </c>
@@ -8085,7 +8083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="242" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F242" s="1">
         <v>236</v>
       </c>
@@ -8093,7 +8091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="243" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F243" s="1">
         <v>237</v>
       </c>
@@ -8101,7 +8099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F244" s="1">
         <v>238</v>
       </c>
@@ -8109,7 +8107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="245" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F245" s="1">
         <v>239</v>
       </c>
@@ -8117,7 +8115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F246" s="1">
         <v>240</v>
       </c>
@@ -8125,7 +8123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F247" s="1">
         <v>241</v>
       </c>
@@ -8133,7 +8131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F248" s="1">
         <v>242</v>
       </c>
@@ -8141,7 +8139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="249" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F249" s="1">
         <v>243</v>
       </c>
@@ -8149,7 +8147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F250" s="1">
         <v>244</v>
       </c>
@@ -8157,7 +8155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F251" s="1">
         <v>245</v>
       </c>
@@ -8165,7 +8163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F252" s="1">
         <v>246</v>
       </c>
@@ -8173,7 +8171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F253" s="1">
         <v>247</v>
       </c>
@@ -8181,7 +8179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="254" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F254" s="1">
         <v>248</v>
       </c>
@@ -8189,7 +8187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F255" s="1">
         <v>249</v>
       </c>
@@ -8197,7 +8195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="256" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F256" s="1">
         <v>250</v>
       </c>
@@ -8205,7 +8203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F257" s="1">
         <v>251</v>
       </c>
@@ -8213,7 +8211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F258" s="1">
         <v>252</v>
       </c>
@@ -8221,7 +8219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F259" s="1">
         <v>253</v>
       </c>
@@ -8229,7 +8227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="260" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F260" s="1">
         <v>254</v>
       </c>
@@ -8237,7 +8235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="261" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F261" s="1">
         <v>255</v>
       </c>
@@ -8245,7 +8243,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F262" s="1">
         <v>256</v>
       </c>
@@ -8253,7 +8251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="263" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F263" s="1">
         <v>257</v>
       </c>
@@ -8261,7 +8259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="264" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F264" s="1">
         <v>258</v>
       </c>
@@ -8269,7 +8267,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="265" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F265" s="1">
         <v>259</v>
       </c>
@@ -8277,7 +8275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="266" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F266" s="1">
         <v>260</v>
       </c>
@@ -8285,7 +8283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="267" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F267" s="1">
         <v>261</v>
       </c>
@@ -8293,7 +8291,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="268" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F268" s="1">
         <v>262</v>
       </c>
@@ -8301,7 +8299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="269" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F269" s="1">
         <v>263</v>
       </c>
@@ -8309,7 +8307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F270" s="1">
         <v>264</v>
       </c>
@@ -8317,7 +8315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="271" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F271" s="1">
         <v>265</v>
       </c>
@@ -8325,7 +8323,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="272" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F272" s="1">
         <v>266</v>
       </c>
@@ -8333,7 +8331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="273" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F273" s="1">
         <v>267</v>
       </c>
@@ -8341,7 +8339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="274" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F274" s="1">
         <v>268</v>
       </c>
@@ -8349,7 +8347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="275" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F275" s="1">
         <v>269</v>
       </c>
@@ -8357,7 +8355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="276" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F276" s="1">
         <v>270</v>
       </c>
@@ -8365,7 +8363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="277" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F277" s="1">
         <v>271</v>
       </c>
@@ -8373,7 +8371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="278" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F278" s="1">
         <v>272</v>
       </c>
@@ -8381,7 +8379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="279" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F279" s="1">
         <v>273</v>
       </c>
@@ -8389,7 +8387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="280" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F280" s="1">
         <v>274</v>
       </c>
@@ -8397,7 +8395,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="281" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F281" s="1">
         <v>275</v>
       </c>
@@ -8405,7 +8403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="282" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F282" s="1">
         <v>276</v>
       </c>
@@ -8413,7 +8411,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="283" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F283" s="1">
         <v>277</v>
       </c>
@@ -8421,7 +8419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="284" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F284" s="1">
         <v>278</v>
       </c>
@@ -8429,7 +8427,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="285" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F285" s="1">
         <v>279</v>
       </c>
@@ -8437,7 +8435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="286" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F286" s="1">
         <v>280</v>
       </c>
@@ -8445,7 +8443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F287" s="1">
         <v>281</v>
       </c>
@@ -8453,7 +8451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="288" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F288" s="1">
         <v>282</v>
       </c>
@@ -8461,7 +8459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="289" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F289" s="1">
         <v>283</v>
       </c>
@@ -8469,7 +8467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="290" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F290" s="1">
         <v>284</v>
       </c>
@@ -8477,7 +8475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="291" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F291" s="1">
         <v>285</v>
       </c>
@@ -8485,7 +8483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="292" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F292" s="1">
         <v>286</v>
       </c>
@@ -8493,7 +8491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="293" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F293" s="1">
         <v>287</v>
       </c>
@@ -8501,7 +8499,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F294" s="1">
         <v>288</v>
       </c>
@@ -8509,7 +8507,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="295" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F295" s="1">
         <v>289</v>
       </c>
@@ -8517,7 +8515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="296" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F296" s="1">
         <v>290</v>
       </c>
@@ -8525,7 +8523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="297" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F297" s="1">
         <v>291</v>
       </c>
@@ -8533,7 +8531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F298" s="1">
         <v>292</v>
       </c>
@@ -8541,7 +8539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="299" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F299" s="1">
         <v>293</v>
       </c>
@@ -8549,7 +8547,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="300" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F300" s="1">
         <v>294</v>
       </c>
@@ -8557,7 +8555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="301" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F301" s="1">
         <v>295</v>
       </c>
@@ -8565,7 +8563,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="302" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F302" s="1">
         <v>296</v>
       </c>
@@ -8573,7 +8571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="303" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F303" s="1">
         <v>297</v>
       </c>
@@ -8581,7 +8579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="304" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F304" s="1">
         <v>298</v>
       </c>
@@ -8589,7 +8587,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="305" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F305" s="1">
         <v>299</v>
       </c>
@@ -8597,7 +8595,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="306" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F306" s="1">
         <v>300</v>
       </c>
@@ -8605,7 +8603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="307" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F307" s="1">
         <v>301</v>
       </c>
@@ -8613,7 +8611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="308" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F308" s="1">
         <v>302</v>
       </c>
@@ -8621,7 +8619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="309" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F309" s="1">
         <v>303</v>
       </c>
@@ -8629,7 +8627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="310" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F310" s="1">
         <v>304</v>
       </c>
@@ -8637,7 +8635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="311" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F311" s="1">
         <v>305</v>
       </c>
@@ -8645,7 +8643,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="312" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F312" s="1">
         <v>306</v>
       </c>
@@ -8653,7 +8651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="313" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F313" s="1">
         <v>307</v>
       </c>
@@ -8661,7 +8659,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="314" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F314" s="1">
         <v>308</v>
       </c>
@@ -8669,7 +8667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="315" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F315" s="1">
         <v>309</v>
       </c>
@@ -8677,7 +8675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="316" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F316" s="1">
         <v>310</v>
       </c>
@@ -8685,7 +8683,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="317" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F317" s="1">
         <v>311</v>
       </c>
@@ -8693,7 +8691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="318" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F318" s="1">
         <v>312</v>
       </c>
@@ -8701,7 +8699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="319" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F319" s="1">
         <v>313</v>
       </c>
@@ -8709,7 +8707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="320" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F320" s="1">
         <v>314</v>
       </c>
@@ -8717,7 +8715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="321" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F321" s="1">
         <v>315</v>
       </c>
@@ -8725,7 +8723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="322" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F322" s="1">
         <v>316</v>
       </c>
@@ -8733,7 +8731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="323" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F323" s="1">
         <v>317</v>
       </c>
@@ -8741,7 +8739,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="324" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F324" s="1">
         <v>318</v>
       </c>
@@ -8749,7 +8747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="325" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F325" s="1">
         <v>319</v>
       </c>
@@ -8757,7 +8755,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="326" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F326" s="1">
         <v>320</v>
       </c>
@@ -8765,7 +8763,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="327" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F327" s="1">
         <v>321</v>
       </c>
@@ -8773,7 +8771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="328" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F328" s="1">
         <v>322</v>
       </c>
@@ -8781,7 +8779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="329" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F329" s="1">
         <v>323</v>
       </c>
@@ -8789,7 +8787,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="330" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F330" s="1">
         <v>324</v>
       </c>
@@ -8797,7 +8795,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="331" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F331" s="1">
         <v>325</v>
       </c>
@@ -8805,7 +8803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="332" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F332" s="1">
         <v>326</v>
       </c>
@@ -8813,7 +8811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="333" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F333" s="1">
         <v>327</v>
       </c>
@@ -8821,7 +8819,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="334" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F334" s="1">
         <v>328</v>
       </c>
@@ -8829,7 +8827,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="335" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F335" s="1">
         <v>329</v>
       </c>
@@ -8837,7 +8835,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F336" s="1">
         <v>330</v>
       </c>
@@ -8845,7 +8843,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="337" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F337" s="1">
         <v>331</v>
       </c>
@@ -8853,7 +8851,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="338" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F338" s="1">
         <v>332</v>
       </c>
@@ -8861,7 +8859,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="339" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F339" s="1">
         <v>333</v>
       </c>
@@ -8869,7 +8867,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="340" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F340" s="1">
         <v>334</v>
       </c>
@@ -8877,7 +8875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="341" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F341" s="1">
         <v>335</v>
       </c>
@@ -8885,7 +8883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="342" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F342" s="1">
         <v>336</v>
       </c>
@@ -8893,7 +8891,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="343" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F343" s="1">
         <v>337</v>
       </c>
@@ -8901,7 +8899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="344" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F344" s="1">
         <v>338</v>
       </c>
@@ -8909,7 +8907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="345" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F345" s="1">
         <v>339</v>
       </c>
@@ -8917,7 +8915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="346" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F346" s="1">
         <v>340</v>
       </c>
@@ -8925,7 +8923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="347" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F347" s="1">
         <v>341</v>
       </c>
@@ -8933,7 +8931,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="348" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F348" s="1">
         <v>342</v>
       </c>
@@ -8941,7 +8939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="349" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F349" s="1">
         <v>343</v>
       </c>
@@ -8949,7 +8947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="350" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F350" s="1">
         <v>344</v>
       </c>
@@ -8957,7 +8955,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="351" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F351" s="1">
         <v>345</v>
       </c>
@@ -8965,7 +8963,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="352" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F352" s="1">
         <v>346</v>
       </c>
@@ -8973,7 +8971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="353" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F353" s="1">
         <v>347</v>
       </c>
@@ -8981,7 +8979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="354" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F354" s="1">
         <v>348</v>
       </c>
@@ -8989,7 +8987,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="355" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F355" s="1">
         <v>349</v>
       </c>
@@ -8997,7 +8995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="356" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F356" s="1">
         <v>350</v>
       </c>
@@ -9005,7 +9003,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="357" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F357" s="1">
         <v>351</v>
       </c>
@@ -9013,7 +9011,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="358" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F358" s="1">
         <v>352</v>
       </c>
@@ -9021,7 +9019,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="359" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F359" s="1">
         <v>353</v>
       </c>
@@ -9029,7 +9027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="360" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F360" s="1">
         <v>354</v>
       </c>
@@ -9037,7 +9035,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="361" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F361" s="1">
         <v>355</v>
       </c>
@@ -9045,7 +9043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="362" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F362" s="1">
         <v>356</v>
       </c>
@@ -9053,7 +9051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="363" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F363" s="1">
         <v>357</v>
       </c>
@@ -9061,7 +9059,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="364" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F364" s="1">
         <v>358</v>
       </c>
@@ -9069,7 +9067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="365" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F365" s="1">
         <v>359</v>
       </c>
@@ -9077,7 +9075,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="366" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F366" s="1">
         <v>360</v>
       </c>
@@ -9085,7 +9083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="367" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F367" s="1">
         <v>361</v>
       </c>
@@ -9093,7 +9091,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="368" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F368" s="1">
         <v>362</v>
       </c>
@@ -9101,7 +9099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="369" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F369" s="1">
         <v>363</v>
       </c>
@@ -9109,7 +9107,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="370" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F370" s="1">
         <v>364</v>
       </c>
@@ -9117,7 +9115,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="371" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F371" s="1">
         <v>365</v>
       </c>
@@ -9125,7 +9123,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="372" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F372" s="1">
         <v>366</v>
       </c>
@@ -9133,7 +9131,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="373" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F373" s="1">
         <v>367</v>
       </c>
@@ -9141,7 +9139,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="374" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F374" s="1">
         <v>368</v>
       </c>
@@ -9149,7 +9147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="375" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F375" s="1">
         <v>369</v>
       </c>
@@ -9157,7 +9155,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="376" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F376" s="1">
         <v>370</v>
       </c>
@@ -9165,7 +9163,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="377" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F377" s="1">
         <v>371</v>
       </c>
@@ -9173,7 +9171,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="378" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F378" s="1">
         <v>372</v>
       </c>
@@ -9181,7 +9179,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="379" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F379" s="1">
         <v>373</v>
       </c>
@@ -9189,7 +9187,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="380" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F380" s="1">
         <v>374</v>
       </c>
@@ -9197,7 +9195,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="381" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F381" s="1">
         <v>375</v>
       </c>
@@ -9205,7 +9203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="382" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F382" s="1">
         <v>376</v>
       </c>
@@ -9213,7 +9211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="383" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F383" s="1">
         <v>377</v>
       </c>
@@ -9221,7 +9219,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="384" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F384" s="1">
         <v>378</v>
       </c>
@@ -9229,7 +9227,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="385" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F385" s="1">
         <v>379</v>
       </c>
@@ -9237,7 +9235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="386" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F386" s="1">
         <v>380</v>
       </c>
@@ -9245,7 +9243,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="387" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F387" s="1">
         <v>381</v>
       </c>
@@ -9253,7 +9251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="388" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F388" s="1">
         <v>382</v>
       </c>
@@ -9261,7 +9259,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="389" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F389" s="1">
         <v>383</v>
       </c>
@@ -9269,7 +9267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="390" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F390" s="1">
         <v>384</v>
       </c>
@@ -9277,7 +9275,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="391" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F391" s="1">
         <v>385</v>
       </c>
@@ -9285,7 +9283,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="392" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F392" s="1">
         <v>386</v>
       </c>
@@ -9293,7 +9291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="393" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F393" s="1">
         <v>387</v>
       </c>
@@ -9301,7 +9299,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="394" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F394" s="1">
         <v>388</v>
       </c>
@@ -9309,7 +9307,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="395" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F395" s="1">
         <v>389</v>
       </c>
@@ -9317,7 +9315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="396" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F396" s="1">
         <v>390</v>
       </c>
@@ -9325,7 +9323,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="397" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F397" s="1">
         <v>391</v>
       </c>
@@ -9333,7 +9331,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="398" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F398" s="1">
         <v>392</v>
       </c>
@@ -9341,7 +9339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="399" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F399" s="1">
         <v>393</v>
       </c>
@@ -9349,7 +9347,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="400" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F400" s="1">
         <v>394</v>
       </c>
@@ -9357,7 +9355,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="401" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F401" s="1">
         <v>395</v>
       </c>
@@ -9365,7 +9363,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="402" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F402" s="1">
         <v>396</v>
       </c>
@@ -9373,7 +9371,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="403" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F403" s="1">
         <v>397</v>
       </c>
@@ -9381,7 +9379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="404" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F404" s="1">
         <v>398</v>
       </c>
@@ -9389,7 +9387,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="405" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F405" s="1">
         <v>399</v>
       </c>
@@ -9397,7 +9395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="406" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F406" s="1">
         <v>400</v>
       </c>
